--- a/Rak_Prices.xlsx
+++ b/Rak_Prices.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boaz Perlov\Dropbox\Indigo Tech\Rako Quote Bot\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boaz Perlov\PycharmProjects\Rako_Quote_Bot\rako-quote-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2075CAA8-3660-4C4D-84BA-23D55965BCB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C6B4EE-8569-40BB-99A1-22389E885639}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$H$294</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="410">
   <si>
     <t>Product Code</t>
   </si>
@@ -1264,9 +1267,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1369,9 +1371,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1393,8 +1395,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1711,23 +1718,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H294"/>
+  <dimension ref="A1:H297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E285" sqref="E285"/>
+      <selection pane="bottomLeft" activeCell="H263" sqref="H263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1769,6 +1776,9 @@
       <c r="D2" s="13">
         <v>66.5</v>
       </c>
+      <c r="E2" s="10">
+        <v>114</v>
+      </c>
       <c r="F2" s="4">
         <f>D2*C2</f>
         <v>0</v>
@@ -1795,6 +1805,9 @@
       <c r="D3" s="13">
         <v>162.4</v>
       </c>
+      <c r="E3" s="10">
+        <v>278.39999999999998</v>
+      </c>
       <c r="F3" s="4">
         <f>D3*C3</f>
         <v>0</v>
@@ -1821,6 +1834,9 @@
       <c r="D4" s="13">
         <v>138.6</v>
       </c>
+      <c r="E4" s="10">
+        <v>237.6</v>
+      </c>
       <c r="F4" s="4">
         <f>D4*C4</f>
         <v>0</v>
@@ -1847,6 +1863,9 @@
       <c r="D5" s="13">
         <v>109.9</v>
       </c>
+      <c r="E5" s="10">
+        <v>188.4</v>
+      </c>
       <c r="F5" s="4">
         <f>D5*C5</f>
         <v>0</v>
@@ -1873,6 +1892,9 @@
       <c r="D6" s="13">
         <v>109.9</v>
       </c>
+      <c r="E6" s="10">
+        <v>188.4</v>
+      </c>
       <c r="F6" s="4">
         <f>D6*C6</f>
         <v>0</v>
@@ -1899,6 +1921,9 @@
       <c r="D7" s="13">
         <v>109.9</v>
       </c>
+      <c r="E7" s="10">
+        <v>188.4</v>
+      </c>
       <c r="F7" s="4">
         <f>D7*C7</f>
         <v>0</v>
@@ -1925,6 +1950,9 @@
       <c r="D8" s="13">
         <v>70</v>
       </c>
+      <c r="E8" s="10">
+        <v>120</v>
+      </c>
       <c r="F8" s="4">
         <f>D8*C8</f>
         <v>0</v>
@@ -1951,6 +1979,9 @@
       <c r="D9" s="13">
         <v>357</v>
       </c>
+      <c r="E9" s="10">
+        <v>612</v>
+      </c>
       <c r="F9" s="4">
         <f>D9*C9</f>
         <v>0</v>
@@ -1965,17 +1996,20 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="C10" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="16">
         <v>392</v>
+      </c>
+      <c r="E10" s="10">
+        <v>672</v>
       </c>
       <c r="F10" s="4">
         <f>D10*C10</f>
@@ -2003,6 +2037,9 @@
       <c r="D11" s="13">
         <v>372.4</v>
       </c>
+      <c r="E11" s="10">
+        <v>637.70000000000005</v>
+      </c>
       <c r="F11" s="4">
         <f>D11*C11</f>
         <v>0</v>
@@ -2029,6 +2066,9 @@
       <c r="D12" s="13">
         <v>257.60000000000002</v>
       </c>
+      <c r="E12" s="10">
+        <v>441.6</v>
+      </c>
       <c r="F12" s="4">
         <f>D12*C12</f>
         <v>0</v>
@@ -2055,6 +2095,9 @@
       <c r="D13" s="13">
         <v>240.1</v>
       </c>
+      <c r="E13" s="10">
+        <v>411.6</v>
+      </c>
       <c r="F13" s="4">
         <f>D13*C13</f>
         <v>0</v>
@@ -2081,6 +2124,9 @@
       <c r="D14" s="13">
         <v>199.5</v>
       </c>
+      <c r="E14" s="10">
+        <v>342</v>
+      </c>
       <c r="F14" s="4">
         <f>D14*C14</f>
         <v>0</v>
@@ -2107,6 +2153,9 @@
       <c r="D15" s="13">
         <v>91</v>
       </c>
+      <c r="E15" s="10">
+        <v>156</v>
+      </c>
       <c r="F15" s="4">
         <f>D15*C15</f>
         <v>0</v>
@@ -2133,6 +2182,9 @@
       <c r="D16" s="13">
         <v>85.4</v>
       </c>
+      <c r="E16" s="10">
+        <v>146.4</v>
+      </c>
       <c r="F16" s="4">
         <f>D16*C16</f>
         <v>0</v>
@@ -2159,6 +2211,9 @@
       <c r="D17" s="13">
         <v>115.5</v>
       </c>
+      <c r="E17" s="10">
+        <v>198</v>
+      </c>
       <c r="F17" s="4">
         <f>D17*C17</f>
         <v>0</v>
@@ -2185,6 +2240,9 @@
       <c r="D18" s="13">
         <v>28</v>
       </c>
+      <c r="E18" s="10">
+        <v>48</v>
+      </c>
       <c r="F18" s="4">
         <f>D18*C18</f>
         <v>0</v>
@@ -2211,6 +2269,9 @@
       <c r="D19" s="13">
         <v>28.7</v>
       </c>
+      <c r="E19" s="10">
+        <v>49.2</v>
+      </c>
       <c r="F19" s="4">
         <f>D19*C19</f>
         <v>0</v>
@@ -2237,6 +2298,9 @@
       <c r="D20" s="13">
         <v>124.6</v>
       </c>
+      <c r="E20" s="10">
+        <v>213.6</v>
+      </c>
       <c r="F20" s="4">
         <f>D20*C20</f>
         <v>0</v>
@@ -2289,6 +2353,9 @@
       <c r="D22" s="13">
         <v>74.900000000000006</v>
       </c>
+      <c r="E22" s="10">
+        <v>128.4</v>
+      </c>
       <c r="F22" s="4">
         <f>D22*C22</f>
         <v>0</v>
@@ -2315,6 +2382,9 @@
       <c r="D23" s="13">
         <v>74.900000000000006</v>
       </c>
+      <c r="E23" s="10">
+        <v>128.4</v>
+      </c>
       <c r="F23" s="4">
         <f>D23*C23</f>
         <v>0</v>
@@ -2341,6 +2411,9 @@
       <c r="D24" s="13">
         <v>88.9</v>
       </c>
+      <c r="E24" s="10">
+        <v>152.4</v>
+      </c>
       <c r="F24" s="4">
         <f>D24*C24</f>
         <v>0</v>
@@ -2367,6 +2440,9 @@
       <c r="D25" s="13">
         <v>88.9</v>
       </c>
+      <c r="E25" s="10">
+        <v>152.4</v>
+      </c>
       <c r="F25" s="4">
         <f>D25*C25</f>
         <v>0</v>
@@ -2393,6 +2469,9 @@
       <c r="D26" s="13">
         <v>88.9</v>
       </c>
+      <c r="E26" s="10">
+        <v>152.4</v>
+      </c>
       <c r="F26" s="4">
         <f>D26*C26</f>
         <v>0</v>
@@ -2419,6 +2498,9 @@
       <c r="D27" s="13">
         <v>88.9</v>
       </c>
+      <c r="E27" s="10">
+        <v>152.4</v>
+      </c>
       <c r="F27" s="4">
         <f>D27*C27</f>
         <v>0</v>
@@ -2445,6 +2527,9 @@
       <c r="D28" s="13">
         <v>88.9</v>
       </c>
+      <c r="E28" s="10">
+        <v>152.4</v>
+      </c>
       <c r="F28" s="4">
         <f>D28*C28</f>
         <v>0</v>
@@ -2471,6 +2556,9 @@
       <c r="D29" s="13">
         <v>105</v>
       </c>
+      <c r="E29" s="10">
+        <v>180</v>
+      </c>
       <c r="F29" s="4">
         <f>D29*C29</f>
         <v>0</v>
@@ -2497,6 +2585,9 @@
       <c r="D30" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E30" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F30" s="4">
         <f>D30*C30</f>
         <v>0</v>
@@ -2523,6 +2614,9 @@
       <c r="D31" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E31" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F31" s="4">
         <f>D31*C31</f>
         <v>0</v>
@@ -2549,6 +2643,9 @@
       <c r="D32" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E32" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F32" s="4">
         <f>D32*C32</f>
         <v>0</v>
@@ -2575,6 +2672,9 @@
       <c r="D33" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E33" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F33" s="4">
         <f>D33*C33</f>
         <v>0</v>
@@ -2601,6 +2701,9 @@
       <c r="D34" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E34" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F34" s="4">
         <f>D34*C34</f>
         <v>0</v>
@@ -2627,6 +2730,9 @@
       <c r="D35" s="13">
         <v>130.19999999999999</v>
       </c>
+      <c r="E35" s="10">
+        <v>223.2</v>
+      </c>
       <c r="F35" s="4">
         <f>D35*C35</f>
         <v>0</v>
@@ -2653,6 +2759,9 @@
       <c r="D36" s="13">
         <v>103.6</v>
       </c>
+      <c r="E36" s="10">
+        <v>177.6</v>
+      </c>
       <c r="F36" s="4">
         <f>D36*C36</f>
         <v>0</v>
@@ -2679,6 +2788,9 @@
       <c r="D37" s="13">
         <v>103.6</v>
       </c>
+      <c r="E37" s="10">
+        <v>177.6</v>
+      </c>
       <c r="F37" s="4">
         <f>D37*C37</f>
         <v>0</v>
@@ -2705,6 +2817,9 @@
       <c r="D38" s="13">
         <v>104.3</v>
       </c>
+      <c r="E38" s="10">
+        <v>178.8</v>
+      </c>
       <c r="F38" s="4">
         <f>D38*C38</f>
         <v>0</v>
@@ -2731,6 +2846,9 @@
       <c r="D39" s="13">
         <v>77</v>
       </c>
+      <c r="E39" s="10">
+        <v>132</v>
+      </c>
       <c r="F39" s="4">
         <f>D39*C39</f>
         <v>0</v>
@@ -2757,6 +2875,9 @@
       <c r="D40" s="13">
         <v>88.2</v>
       </c>
+      <c r="E40" s="10">
+        <v>151.19999999999999</v>
+      </c>
       <c r="F40" s="4">
         <f>D40*C40</f>
         <v>0</v>
@@ -2783,6 +2904,9 @@
       <c r="D41" s="13">
         <v>88.2</v>
       </c>
+      <c r="E41" s="10">
+        <v>151.19999999999999</v>
+      </c>
       <c r="F41" s="4">
         <f>D41*C41</f>
         <v>0</v>
@@ -2809,6 +2933,9 @@
       <c r="D42" s="13">
         <v>30.1</v>
       </c>
+      <c r="E42" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F42" s="4">
         <f>D42*C42</f>
         <v>0</v>
@@ -2835,6 +2962,9 @@
       <c r="D43" s="13">
         <v>23.8</v>
       </c>
+      <c r="E43" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F43" s="4">
         <f>D43*C43</f>
         <v>0</v>
@@ -2861,6 +2991,9 @@
       <c r="D44" s="13">
         <v>60.2</v>
       </c>
+      <c r="E44" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F44" s="4">
         <f>D44*C44</f>
         <v>0</v>
@@ -2887,6 +3020,9 @@
       <c r="D45" s="13">
         <v>60.2</v>
       </c>
+      <c r="E45" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F45" s="4">
         <f>D45*C45</f>
         <v>0</v>
@@ -2913,6 +3049,9 @@
       <c r="D46" s="13">
         <v>60.2</v>
       </c>
+      <c r="E46" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F46" s="4">
         <f>D46*C46</f>
         <v>0</v>
@@ -2939,6 +3078,9 @@
       <c r="D47" s="13">
         <v>56</v>
       </c>
+      <c r="E47" s="10">
+        <v>96</v>
+      </c>
       <c r="F47" s="4">
         <f>D47*C47</f>
         <v>0</v>
@@ -2965,6 +3107,9 @@
       <c r="D48" s="13">
         <v>56</v>
       </c>
+      <c r="E48" s="10">
+        <v>96</v>
+      </c>
       <c r="F48" s="4">
         <f>D48*C48</f>
         <v>0</v>
@@ -2991,6 +3136,9 @@
       <c r="D49" s="13">
         <v>30.1</v>
       </c>
+      <c r="E49" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F49" s="4">
         <f>D49*C49</f>
         <v>0</v>
@@ -3017,6 +3165,9 @@
       <c r="D50" s="13">
         <v>30.1</v>
       </c>
+      <c r="E50" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F50" s="4">
         <f>D50*C50</f>
         <v>0</v>
@@ -3043,6 +3194,9 @@
       <c r="D51" s="13">
         <v>30.1</v>
       </c>
+      <c r="E51" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F51" s="4">
         <f>D51*C51</f>
         <v>0</v>
@@ -3069,6 +3223,9 @@
       <c r="D52" s="13">
         <v>25.2</v>
       </c>
+      <c r="E52" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F52" s="4">
         <f>D52*C52</f>
         <v>0</v>
@@ -3095,6 +3252,9 @@
       <c r="D53" s="13">
         <v>25.2</v>
       </c>
+      <c r="E53" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F53" s="4">
         <f>D53*C53</f>
         <v>0</v>
@@ -3121,6 +3281,9 @@
       <c r="D54" s="13">
         <v>60.2</v>
       </c>
+      <c r="E54" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F54" s="4">
         <f>D54*C54</f>
         <v>0</v>
@@ -3147,6 +3310,9 @@
       <c r="D55" s="13">
         <v>60.2</v>
       </c>
+      <c r="E55" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F55" s="4">
         <f>D55*C55</f>
         <v>0</v>
@@ -3173,6 +3339,9 @@
       <c r="D56" s="13">
         <v>60.2</v>
       </c>
+      <c r="E56" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F56" s="4">
         <f>D56*C56</f>
         <v>0</v>
@@ -3199,6 +3368,9 @@
       <c r="D57" s="13">
         <v>56</v>
       </c>
+      <c r="E57" s="10">
+        <v>96</v>
+      </c>
       <c r="F57" s="4">
         <f>D57*C57</f>
         <v>0</v>
@@ -3225,6 +3397,9 @@
       <c r="D58" s="13">
         <v>56</v>
       </c>
+      <c r="E58" s="10">
+        <v>96</v>
+      </c>
       <c r="F58" s="4">
         <f>D58*C58</f>
         <v>0</v>
@@ -3251,6 +3426,9 @@
       <c r="D59" s="13">
         <v>30.1</v>
       </c>
+      <c r="E59" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F59" s="4">
         <f>D59*C59</f>
         <v>0</v>
@@ -3277,6 +3455,9 @@
       <c r="D60" s="13">
         <v>30.1</v>
       </c>
+      <c r="E60" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F60" s="4">
         <f>D60*C60</f>
         <v>0</v>
@@ -3303,6 +3484,9 @@
       <c r="D61" s="13">
         <v>30.1</v>
       </c>
+      <c r="E61" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F61" s="4">
         <f>D61*C61</f>
         <v>0</v>
@@ -3329,6 +3513,9 @@
       <c r="D62" s="13">
         <v>25.2</v>
       </c>
+      <c r="E62" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F62" s="4">
         <f>D62*C62</f>
         <v>0</v>
@@ -3355,6 +3542,9 @@
       <c r="D63" s="13">
         <v>25.2</v>
       </c>
+      <c r="E63" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F63" s="4">
         <f>D63*C63</f>
         <v>0</v>
@@ -3381,6 +3571,9 @@
       <c r="D64" s="13">
         <v>60.2</v>
       </c>
+      <c r="E64" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F64" s="4">
         <f>D64*C64</f>
         <v>0</v>
@@ -3407,6 +3600,9 @@
       <c r="D65" s="13">
         <v>60.2</v>
       </c>
+      <c r="E65" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F65" s="4">
         <f>D65*C65</f>
         <v>0</v>
@@ -3433,6 +3629,9 @@
       <c r="D66" s="13">
         <v>60.2</v>
       </c>
+      <c r="E66" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F66" s="4">
         <f>D66*C66</f>
         <v>0</v>
@@ -3459,6 +3658,9 @@
       <c r="D67" s="13">
         <v>56</v>
       </c>
+      <c r="E67" s="10">
+        <v>96</v>
+      </c>
       <c r="F67" s="4">
         <f>D67*C67</f>
         <v>0</v>
@@ -3485,16 +3687,19 @@
       <c r="D68" s="13">
         <v>56</v>
       </c>
+      <c r="E68" s="10">
+        <v>96</v>
+      </c>
       <c r="F68" s="4">
-        <f t="shared" ref="F68:F131" si="0">D68*C68</f>
+        <f>D68*C68</f>
         <v>0</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" ref="G68:G131" si="1">F68*0.2</f>
+        <f>F68*0.2</f>
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" ref="H68:H131" si="2">E68*C68</f>
+        <f>E68*C68</f>
         <v>0</v>
       </c>
     </row>
@@ -3511,16 +3716,19 @@
       <c r="D69" s="13">
         <v>56</v>
       </c>
+      <c r="E69" s="10">
+        <v>96</v>
+      </c>
       <c r="F69" s="4">
-        <f t="shared" si="0"/>
+        <f>D69*C69</f>
         <v>0</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="1"/>
+        <f>F69*0.2</f>
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="2"/>
+        <f>E69*C69</f>
         <v>0</v>
       </c>
     </row>
@@ -3537,16 +3745,19 @@
       <c r="D70" s="13">
         <v>30.1</v>
       </c>
+      <c r="E70" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F70" s="4">
-        <f t="shared" si="0"/>
+        <f>D70*C70</f>
         <v>0</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="1"/>
+        <f>F70*0.2</f>
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="2"/>
+        <f>E70*C70</f>
         <v>0</v>
       </c>
     </row>
@@ -3563,16 +3774,19 @@
       <c r="D71" s="13">
         <v>30.1</v>
       </c>
+      <c r="E71" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F71" s="4">
-        <f t="shared" si="0"/>
+        <f>D71*C71</f>
         <v>0</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="1"/>
+        <f>F71*0.2</f>
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="2"/>
+        <f>E71*C71</f>
         <v>0</v>
       </c>
     </row>
@@ -3589,16 +3803,19 @@
       <c r="D72" s="13">
         <v>30.1</v>
       </c>
+      <c r="E72" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F72" s="4">
-        <f t="shared" si="0"/>
+        <f>D72*C72</f>
         <v>0</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="1"/>
+        <f>F72*0.2</f>
         <v>0</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="2"/>
+        <f>E72*C72</f>
         <v>0</v>
       </c>
     </row>
@@ -3615,16 +3832,19 @@
       <c r="D73" s="13">
         <v>25.2</v>
       </c>
+      <c r="E73" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F73" s="4">
-        <f t="shared" si="0"/>
+        <f>D73*C73</f>
         <v>0</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="1"/>
+        <f>F73*0.2</f>
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="2"/>
+        <f>E73*C73</f>
         <v>0</v>
       </c>
     </row>
@@ -3641,16 +3861,19 @@
       <c r="D74" s="13">
         <v>25.2</v>
       </c>
+      <c r="E74" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F74" s="4">
-        <f t="shared" si="0"/>
+        <f>D74*C74</f>
         <v>0</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="1"/>
+        <f>F74*0.2</f>
         <v>0</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="2"/>
+        <f>E74*C74</f>
         <v>0</v>
       </c>
     </row>
@@ -3667,16 +3890,19 @@
       <c r="D75" s="13">
         <v>66.5</v>
       </c>
+      <c r="E75" s="10">
+        <v>114</v>
+      </c>
       <c r="F75" s="4">
-        <f t="shared" si="0"/>
+        <f>D75*C75</f>
         <v>0</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="1"/>
+        <f>F75*0.2</f>
         <v>0</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="2"/>
+        <f>E75*C75</f>
         <v>0</v>
       </c>
     </row>
@@ -3693,16 +3919,19 @@
       <c r="D76" s="13">
         <v>66.5</v>
       </c>
+      <c r="E76" s="10">
+        <v>114</v>
+      </c>
       <c r="F76" s="4">
-        <f t="shared" si="0"/>
+        <f>D76*C76</f>
         <v>0</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="1"/>
+        <f>F76*0.2</f>
         <v>0</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="2"/>
+        <f>E76*C76</f>
         <v>0</v>
       </c>
     </row>
@@ -3719,16 +3948,19 @@
       <c r="D77" s="13">
         <v>66.5</v>
       </c>
+      <c r="E77" s="10">
+        <v>114</v>
+      </c>
       <c r="F77" s="4">
-        <f t="shared" si="0"/>
+        <f>D77*C77</f>
         <v>0</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="1"/>
+        <f>F77*0.2</f>
         <v>0</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="2"/>
+        <f>E77*C77</f>
         <v>0</v>
       </c>
     </row>
@@ -3745,16 +3977,19 @@
       <c r="D78" s="13">
         <v>66.5</v>
       </c>
+      <c r="E78" s="10">
+        <v>114</v>
+      </c>
       <c r="F78" s="4">
-        <f t="shared" si="0"/>
+        <f>D78*C78</f>
         <v>0</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="1"/>
+        <f>F78*0.2</f>
         <v>0</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="2"/>
+        <f>E78*C78</f>
         <v>0</v>
       </c>
     </row>
@@ -3771,16 +4006,19 @@
       <c r="D79" s="13">
         <v>61.6</v>
       </c>
+      <c r="E79" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F79" s="4">
-        <f t="shared" si="0"/>
+        <f>D79*C79</f>
         <v>0</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="1"/>
+        <f>F79*0.2</f>
         <v>0</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="2"/>
+        <f>E79*C79</f>
         <v>0</v>
       </c>
     </row>
@@ -3797,16 +4035,19 @@
       <c r="D80" s="13">
         <v>61.6</v>
       </c>
+      <c r="E80" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F80" s="4">
-        <f t="shared" si="0"/>
+        <f>D80*C80</f>
         <v>0</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="1"/>
+        <f>F80*0.2</f>
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="2"/>
+        <f>E80*C80</f>
         <v>0</v>
       </c>
     </row>
@@ -3823,16 +4064,19 @@
       <c r="D81" s="13">
         <v>61.6</v>
       </c>
+      <c r="E81" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F81" s="4">
-        <f t="shared" si="0"/>
+        <f>D81*C81</f>
         <v>0</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="1"/>
+        <f>F81*0.2</f>
         <v>0</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="2"/>
+        <f>E81*C81</f>
         <v>0</v>
       </c>
     </row>
@@ -3849,16 +4093,19 @@
       <c r="D82" s="13">
         <v>28.7</v>
       </c>
+      <c r="E82" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F82" s="4">
-        <f t="shared" si="0"/>
+        <f>D82*C82</f>
         <v>0</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="1"/>
+        <f>F82*0.2</f>
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="2"/>
+        <f>E82*C82</f>
         <v>0</v>
       </c>
     </row>
@@ -3875,16 +4122,19 @@
       <c r="D83" s="13">
         <v>28.7</v>
       </c>
+      <c r="E83" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F83" s="4">
-        <f t="shared" si="0"/>
+        <f>D83*C83</f>
         <v>0</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="1"/>
+        <f>F83*0.2</f>
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="2"/>
+        <f>E83*C83</f>
         <v>0</v>
       </c>
     </row>
@@ -3901,16 +4151,19 @@
       <c r="D84" s="13">
         <v>28.7</v>
       </c>
+      <c r="E84" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F84" s="4">
-        <f t="shared" si="0"/>
+        <f>D84*C84</f>
         <v>0</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" si="1"/>
+        <f>F84*0.2</f>
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="2"/>
+        <f>E84*C84</f>
         <v>0</v>
       </c>
     </row>
@@ -3927,16 +4180,19 @@
       <c r="D85" s="13">
         <v>28.7</v>
       </c>
+      <c r="E85" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F85" s="4">
-        <f t="shared" si="0"/>
+        <f>D85*C85</f>
         <v>0</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="1"/>
+        <f>F85*0.2</f>
         <v>0</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="2"/>
+        <f>E85*C85</f>
         <v>0</v>
       </c>
     </row>
@@ -3953,16 +4209,19 @@
       <c r="D86" s="13">
         <v>23.8</v>
       </c>
+      <c r="E86" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F86" s="4">
-        <f t="shared" si="0"/>
+        <f>D86*C86</f>
         <v>0</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="1"/>
+        <f>F86*0.2</f>
         <v>0</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="2"/>
+        <f>E86*C86</f>
         <v>0</v>
       </c>
     </row>
@@ -3979,16 +4238,19 @@
       <c r="D87" s="13">
         <v>23.8</v>
       </c>
+      <c r="E87" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F87" s="4">
-        <f t="shared" si="0"/>
+        <f>D87*C87</f>
         <v>0</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="1"/>
+        <f>F87*0.2</f>
         <v>0</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="2"/>
+        <f>E87*C87</f>
         <v>0</v>
       </c>
     </row>
@@ -4005,16 +4267,19 @@
       <c r="D88" s="13">
         <v>23.8</v>
       </c>
+      <c r="E88" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F88" s="4">
-        <f t="shared" si="0"/>
+        <f>D88*C88</f>
         <v>0</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="1"/>
+        <f>F88*0.2</f>
         <v>0</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="2"/>
+        <f>E88*C88</f>
         <v>0</v>
       </c>
     </row>
@@ -4031,16 +4296,19 @@
       <c r="D89" s="13">
         <v>66.5</v>
       </c>
+      <c r="E89" s="10">
+        <v>114</v>
+      </c>
       <c r="F89" s="4">
-        <f t="shared" si="0"/>
+        <f>D89*C89</f>
         <v>0</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="1"/>
+        <f>F89*0.2</f>
         <v>0</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="2"/>
+        <f>E89*C89</f>
         <v>0</v>
       </c>
     </row>
@@ -4057,16 +4325,19 @@
       <c r="D90" s="13">
         <v>66.5</v>
       </c>
+      <c r="E90" s="10">
+        <v>114</v>
+      </c>
       <c r="F90" s="4">
-        <f t="shared" si="0"/>
+        <f>D90*C90</f>
         <v>0</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" si="1"/>
+        <f>F90*0.2</f>
         <v>0</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="2"/>
+        <f>E90*C90</f>
         <v>0</v>
       </c>
     </row>
@@ -4083,16 +4354,19 @@
       <c r="D91" s="13">
         <v>66.5</v>
       </c>
+      <c r="E91" s="10">
+        <v>114</v>
+      </c>
       <c r="F91" s="4">
-        <f t="shared" si="0"/>
+        <f>D91*C91</f>
         <v>0</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" si="1"/>
+        <f>F91*0.2</f>
         <v>0</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="2"/>
+        <f>E91*C91</f>
         <v>0</v>
       </c>
     </row>
@@ -4109,16 +4383,19 @@
       <c r="D92" s="13">
         <v>66.5</v>
       </c>
+      <c r="E92" s="10">
+        <v>114</v>
+      </c>
       <c r="F92" s="4">
-        <f t="shared" si="0"/>
+        <f>D92*C92</f>
         <v>0</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" si="1"/>
+        <f>F92*0.2</f>
         <v>0</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="2"/>
+        <f>E92*C92</f>
         <v>0</v>
       </c>
     </row>
@@ -4135,16 +4412,19 @@
       <c r="D93" s="13">
         <v>61.6</v>
       </c>
+      <c r="E93" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F93" s="4">
-        <f t="shared" si="0"/>
+        <f>D93*C93</f>
         <v>0</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" si="1"/>
+        <f>F93*0.2</f>
         <v>0</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="2"/>
+        <f>E93*C93</f>
         <v>0</v>
       </c>
     </row>
@@ -4161,16 +4441,19 @@
       <c r="D94" s="13">
         <v>61.6</v>
       </c>
+      <c r="E94" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F94" s="4">
-        <f t="shared" si="0"/>
+        <f>D94*C94</f>
         <v>0</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" si="1"/>
+        <f>F94*0.2</f>
         <v>0</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="2"/>
+        <f>E94*C94</f>
         <v>0</v>
       </c>
     </row>
@@ -4187,16 +4470,19 @@
       <c r="D95" s="13">
         <v>61.6</v>
       </c>
+      <c r="E95" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F95" s="4">
-        <f t="shared" si="0"/>
+        <f>D95*C95</f>
         <v>0</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" si="1"/>
+        <f>F95*0.2</f>
         <v>0</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="2"/>
+        <f>E95*C95</f>
         <v>0</v>
       </c>
     </row>
@@ -4213,16 +4499,19 @@
       <c r="D96" s="13">
         <v>28.7</v>
       </c>
+      <c r="E96" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F96" s="4">
-        <f t="shared" si="0"/>
+        <f>D96*C96</f>
         <v>0</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="1"/>
+        <f>F96*0.2</f>
         <v>0</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="2"/>
+        <f>E96*C96</f>
         <v>0</v>
       </c>
     </row>
@@ -4239,16 +4528,19 @@
       <c r="D97" s="13">
         <v>28.7</v>
       </c>
+      <c r="E97" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F97" s="4">
-        <f t="shared" si="0"/>
+        <f>D97*C97</f>
         <v>0</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" si="1"/>
+        <f>F97*0.2</f>
         <v>0</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="2"/>
+        <f>E97*C97</f>
         <v>0</v>
       </c>
     </row>
@@ -4265,16 +4557,19 @@
       <c r="D98" s="13">
         <v>28.7</v>
       </c>
+      <c r="E98" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F98" s="4">
-        <f t="shared" si="0"/>
+        <f>D98*C98</f>
         <v>0</v>
       </c>
       <c r="G98" s="4">
-        <f t="shared" si="1"/>
+        <f>F98*0.2</f>
         <v>0</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" si="2"/>
+        <f>E98*C98</f>
         <v>0</v>
       </c>
     </row>
@@ -4291,16 +4586,19 @@
       <c r="D99" s="13">
         <v>28.7</v>
       </c>
+      <c r="E99" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F99" s="4">
-        <f t="shared" si="0"/>
+        <f>D99*C99</f>
         <v>0</v>
       </c>
       <c r="G99" s="4">
-        <f t="shared" si="1"/>
+        <f>F99*0.2</f>
         <v>0</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="2"/>
+        <f>E99*C99</f>
         <v>0</v>
       </c>
     </row>
@@ -4317,16 +4615,19 @@
       <c r="D100" s="13">
         <v>23.8</v>
       </c>
+      <c r="E100" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F100" s="4">
-        <f t="shared" si="0"/>
+        <f>D100*C100</f>
         <v>0</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" si="1"/>
+        <f>F100*0.2</f>
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" si="2"/>
+        <f>E100*C100</f>
         <v>0</v>
       </c>
     </row>
@@ -4343,16 +4644,19 @@
       <c r="D101" s="13">
         <v>23.8</v>
       </c>
+      <c r="E101" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F101" s="4">
-        <f t="shared" si="0"/>
+        <f>D101*C101</f>
         <v>0</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" si="1"/>
+        <f>F101*0.2</f>
         <v>0</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="2"/>
+        <f>E101*C101</f>
         <v>0</v>
       </c>
     </row>
@@ -4369,16 +4673,19 @@
       <c r="D102" s="13">
         <v>23.8</v>
       </c>
+      <c r="E102" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F102" s="4">
-        <f t="shared" si="0"/>
+        <f>D102*C102</f>
         <v>0</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="1"/>
+        <f>F102*0.2</f>
         <v>0</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="2"/>
+        <f>E102*C102</f>
         <v>0</v>
       </c>
     </row>
@@ -4395,16 +4702,19 @@
       <c r="D103" s="13">
         <v>66.5</v>
       </c>
+      <c r="E103" s="10">
+        <v>114</v>
+      </c>
       <c r="F103" s="4">
-        <f t="shared" si="0"/>
+        <f>D103*C103</f>
         <v>0</v>
       </c>
       <c r="G103" s="4">
-        <f t="shared" si="1"/>
+        <f>F103*0.2</f>
         <v>0</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" si="2"/>
+        <f>E103*C103</f>
         <v>0</v>
       </c>
     </row>
@@ -4421,16 +4731,19 @@
       <c r="D104" s="13">
         <v>66.5</v>
       </c>
+      <c r="E104" s="10">
+        <v>114</v>
+      </c>
       <c r="F104" s="4">
-        <f t="shared" si="0"/>
+        <f>D104*C104</f>
         <v>0</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="1"/>
+        <f>F104*0.2</f>
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="2"/>
+        <f>E104*C104</f>
         <v>0</v>
       </c>
     </row>
@@ -4447,16 +4760,19 @@
       <c r="D105" s="13">
         <v>66.5</v>
       </c>
+      <c r="E105" s="10">
+        <v>114</v>
+      </c>
       <c r="F105" s="4">
-        <f t="shared" si="0"/>
+        <f>D105*C105</f>
         <v>0</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="1"/>
+        <f>F105*0.2</f>
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="2"/>
+        <f>E105*C105</f>
         <v>0</v>
       </c>
     </row>
@@ -4473,16 +4789,19 @@
       <c r="D106" s="13">
         <v>66.5</v>
       </c>
+      <c r="E106" s="10">
+        <v>114</v>
+      </c>
       <c r="F106" s="4">
-        <f t="shared" si="0"/>
+        <f>D106*C106</f>
         <v>0</v>
       </c>
       <c r="G106" s="4">
-        <f t="shared" si="1"/>
+        <f>F106*0.2</f>
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="2"/>
+        <f>E106*C106</f>
         <v>0</v>
       </c>
     </row>
@@ -4499,16 +4818,19 @@
       <c r="D107" s="13">
         <v>61.6</v>
       </c>
+      <c r="E107" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F107" s="4">
-        <f t="shared" si="0"/>
+        <f>D107*C107</f>
         <v>0</v>
       </c>
       <c r="G107" s="4">
-        <f t="shared" si="1"/>
+        <f>F107*0.2</f>
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="2"/>
+        <f>E107*C107</f>
         <v>0</v>
       </c>
     </row>
@@ -4525,16 +4847,19 @@
       <c r="D108" s="13">
         <v>61.6</v>
       </c>
+      <c r="E108" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F108" s="4">
-        <f t="shared" si="0"/>
+        <f>D108*C108</f>
         <v>0</v>
       </c>
       <c r="G108" s="4">
-        <f t="shared" si="1"/>
+        <f>F108*0.2</f>
         <v>0</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" si="2"/>
+        <f>E108*C108</f>
         <v>0</v>
       </c>
     </row>
@@ -4551,16 +4876,19 @@
       <c r="D109" s="13">
         <v>61.6</v>
       </c>
+      <c r="E109" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F109" s="4">
-        <f t="shared" si="0"/>
+        <f>D109*C109</f>
         <v>0</v>
       </c>
       <c r="G109" s="4">
-        <f t="shared" si="1"/>
+        <f>F109*0.2</f>
         <v>0</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" si="2"/>
+        <f>E109*C109</f>
         <v>0</v>
       </c>
     </row>
@@ -4577,16 +4905,19 @@
       <c r="D110" s="13">
         <v>28.7</v>
       </c>
+      <c r="E110" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F110" s="4">
-        <f t="shared" si="0"/>
+        <f>D110*C110</f>
         <v>0</v>
       </c>
       <c r="G110" s="4">
-        <f t="shared" si="1"/>
+        <f>F110*0.2</f>
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <f t="shared" si="2"/>
+        <f>E110*C110</f>
         <v>0</v>
       </c>
     </row>
@@ -4603,16 +4934,19 @@
       <c r="D111" s="13">
         <v>28.7</v>
       </c>
+      <c r="E111" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F111" s="4">
-        <f t="shared" si="0"/>
+        <f>D111*C111</f>
         <v>0</v>
       </c>
       <c r="G111" s="4">
-        <f t="shared" si="1"/>
+        <f>F111*0.2</f>
         <v>0</v>
       </c>
       <c r="H111" s="4">
-        <f t="shared" si="2"/>
+        <f>E111*C111</f>
         <v>0</v>
       </c>
     </row>
@@ -4629,16 +4963,19 @@
       <c r="D112" s="13">
         <v>28.7</v>
       </c>
+      <c r="E112" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F112" s="4">
-        <f t="shared" si="0"/>
+        <f>D112*C112</f>
         <v>0</v>
       </c>
       <c r="G112" s="4">
-        <f t="shared" si="1"/>
+        <f>F112*0.2</f>
         <v>0</v>
       </c>
       <c r="H112" s="4">
-        <f t="shared" si="2"/>
+        <f>E112*C112</f>
         <v>0</v>
       </c>
     </row>
@@ -4655,16 +4992,19 @@
       <c r="D113" s="13">
         <v>28.7</v>
       </c>
+      <c r="E113" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F113" s="4">
-        <f t="shared" si="0"/>
+        <f>D113*C113</f>
         <v>0</v>
       </c>
       <c r="G113" s="4">
-        <f t="shared" si="1"/>
+        <f>F113*0.2</f>
         <v>0</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" si="2"/>
+        <f>E113*C113</f>
         <v>0</v>
       </c>
     </row>
@@ -4681,16 +5021,19 @@
       <c r="D114" s="13">
         <v>23.8</v>
       </c>
+      <c r="E114" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F114" s="4">
-        <f t="shared" si="0"/>
+        <f>D114*C114</f>
         <v>0</v>
       </c>
       <c r="G114" s="4">
-        <f t="shared" si="1"/>
+        <f>F114*0.2</f>
         <v>0</v>
       </c>
       <c r="H114" s="4">
-        <f t="shared" si="2"/>
+        <f>E114*C114</f>
         <v>0</v>
       </c>
     </row>
@@ -4707,16 +5050,19 @@
       <c r="D115" s="13">
         <v>23.8</v>
       </c>
+      <c r="E115" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F115" s="4">
-        <f t="shared" si="0"/>
+        <f>D115*C115</f>
         <v>0</v>
       </c>
       <c r="G115" s="4">
-        <f t="shared" si="1"/>
+        <f>F115*0.2</f>
         <v>0</v>
       </c>
       <c r="H115" s="4">
-        <f t="shared" si="2"/>
+        <f>E115*C115</f>
         <v>0</v>
       </c>
     </row>
@@ -4733,16 +5079,19 @@
       <c r="D116" s="13">
         <v>23.8</v>
       </c>
+      <c r="E116" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F116" s="4">
-        <f t="shared" si="0"/>
+        <f>D116*C116</f>
         <v>0</v>
       </c>
       <c r="G116" s="4">
-        <f t="shared" si="1"/>
+        <f>F116*0.2</f>
         <v>0</v>
       </c>
       <c r="H116" s="4">
-        <f t="shared" si="2"/>
+        <f>E116*C116</f>
         <v>0</v>
       </c>
     </row>
@@ -4759,16 +5108,19 @@
       <c r="D117" s="13">
         <v>135.1</v>
       </c>
+      <c r="E117" s="10">
+        <v>231.6</v>
+      </c>
       <c r="F117" s="4">
-        <f t="shared" si="0"/>
+        <f>D117*C117</f>
         <v>0</v>
       </c>
       <c r="G117" s="4">
-        <f t="shared" si="1"/>
+        <f>F117*0.2</f>
         <v>0</v>
       </c>
       <c r="H117" s="4">
-        <f t="shared" si="2"/>
+        <f>E117*C117</f>
         <v>0</v>
       </c>
     </row>
@@ -4785,16 +5137,19 @@
       <c r="D118" s="13">
         <v>72.099999999999994</v>
       </c>
+      <c r="E118" s="10">
+        <v>123.6</v>
+      </c>
       <c r="F118" s="4">
-        <f t="shared" si="0"/>
+        <f>D118*C118</f>
         <v>0</v>
       </c>
       <c r="G118" s="4">
-        <f t="shared" si="1"/>
+        <f>F118*0.2</f>
         <v>0</v>
       </c>
       <c r="H118" s="4">
-        <f t="shared" si="2"/>
+        <f>E118*C118</f>
         <v>0</v>
       </c>
     </row>
@@ -4811,16 +5166,19 @@
       <c r="D119" s="13">
         <v>87.5</v>
       </c>
+      <c r="E119" s="10">
+        <v>150</v>
+      </c>
       <c r="F119" s="4">
-        <f t="shared" si="0"/>
+        <f>D119*C119</f>
         <v>0</v>
       </c>
       <c r="G119" s="4">
-        <f t="shared" si="1"/>
+        <f>F119*0.2</f>
         <v>0</v>
       </c>
       <c r="H119" s="4">
-        <f t="shared" si="2"/>
+        <f>E119*C119</f>
         <v>0</v>
       </c>
     </row>
@@ -4837,16 +5195,19 @@
       <c r="D120" s="13">
         <v>132.30000000000001</v>
       </c>
+      <c r="E120" s="10">
+        <v>226.8</v>
+      </c>
       <c r="F120" s="4">
-        <f t="shared" si="0"/>
+        <f>D120*C120</f>
         <v>0</v>
       </c>
       <c r="G120" s="4">
-        <f t="shared" si="1"/>
+        <f>F120*0.2</f>
         <v>0</v>
       </c>
       <c r="H120" s="4">
-        <f t="shared" si="2"/>
+        <f>E120*C120</f>
         <v>0</v>
       </c>
     </row>
@@ -4863,16 +5224,19 @@
       <c r="D121" s="13">
         <v>63.7</v>
       </c>
+      <c r="E121" s="10">
+        <v>109.2</v>
+      </c>
       <c r="F121" s="4">
-        <f t="shared" si="0"/>
+        <f>D121*C121</f>
         <v>0</v>
       </c>
       <c r="G121" s="4">
-        <f t="shared" si="1"/>
+        <f>F121*0.2</f>
         <v>0</v>
       </c>
       <c r="H121" s="4">
-        <f t="shared" si="2"/>
+        <f>E121*C121</f>
         <v>0</v>
       </c>
     </row>
@@ -4889,16 +5253,19 @@
       <c r="D122" s="13">
         <v>135.1</v>
       </c>
+      <c r="E122" s="10">
+        <v>231.6</v>
+      </c>
       <c r="F122" s="4">
-        <f t="shared" si="0"/>
+        <f>D122*C122</f>
         <v>0</v>
       </c>
       <c r="G122" s="4">
-        <f t="shared" si="1"/>
+        <f>F122*0.2</f>
         <v>0</v>
       </c>
       <c r="H122" s="4">
-        <f t="shared" si="2"/>
+        <f>E122*C122</f>
         <v>0</v>
       </c>
     </row>
@@ -4915,16 +5282,19 @@
       <c r="D123" s="13">
         <v>87.5</v>
       </c>
+      <c r="E123" s="10">
+        <v>150</v>
+      </c>
       <c r="F123" s="4">
-        <f t="shared" si="0"/>
+        <f>D123*C123</f>
         <v>0</v>
       </c>
       <c r="G123" s="4">
-        <f t="shared" si="1"/>
+        <f>F123*0.2</f>
         <v>0</v>
       </c>
       <c r="H123" s="4">
-        <f t="shared" si="2"/>
+        <f>E123*C123</f>
         <v>0</v>
       </c>
     </row>
@@ -4941,16 +5311,19 @@
       <c r="D124" s="13">
         <v>87.5</v>
       </c>
+      <c r="E124" s="10">
+        <v>150</v>
+      </c>
       <c r="F124" s="4">
-        <f t="shared" si="0"/>
+        <f>D124*C124</f>
         <v>0</v>
       </c>
       <c r="G124" s="4">
-        <f t="shared" si="1"/>
+        <f>F124*0.2</f>
         <v>0</v>
       </c>
       <c r="H124" s="4">
-        <f t="shared" si="2"/>
+        <f>E124*C124</f>
         <v>0</v>
       </c>
     </row>
@@ -4967,16 +5340,19 @@
       <c r="D125" s="13">
         <v>78.400000000000006</v>
       </c>
+      <c r="E125" s="10">
+        <v>134.4</v>
+      </c>
       <c r="F125" s="4">
-        <f t="shared" si="0"/>
+        <f>D125*C125</f>
         <v>0</v>
       </c>
       <c r="G125" s="4">
-        <f t="shared" si="1"/>
+        <f>F125*0.2</f>
         <v>0</v>
       </c>
       <c r="H125" s="4">
-        <f t="shared" si="2"/>
+        <f>E125*C125</f>
         <v>0</v>
       </c>
     </row>
@@ -4993,16 +5369,19 @@
       <c r="D126" s="13">
         <v>98</v>
       </c>
+      <c r="E126" s="10">
+        <v>168</v>
+      </c>
       <c r="F126" s="4">
-        <f t="shared" si="0"/>
+        <f>D126*C126</f>
         <v>0</v>
       </c>
       <c r="G126" s="4">
-        <f t="shared" si="1"/>
+        <f>F126*0.2</f>
         <v>0</v>
       </c>
       <c r="H126" s="4">
-        <f t="shared" si="2"/>
+        <f>E126*C126</f>
         <v>0</v>
       </c>
     </row>
@@ -5019,16 +5398,19 @@
       <c r="D127" s="13">
         <v>98</v>
       </c>
+      <c r="E127" s="10">
+        <v>168</v>
+      </c>
       <c r="F127" s="4">
-        <f t="shared" si="0"/>
+        <f>D127*C127</f>
         <v>0</v>
       </c>
       <c r="G127" s="4">
-        <f t="shared" si="1"/>
+        <f>F127*0.2</f>
         <v>0</v>
       </c>
       <c r="H127" s="4">
-        <f t="shared" si="2"/>
+        <f>E127*C127</f>
         <v>0</v>
       </c>
     </row>
@@ -5045,16 +5427,19 @@
       <c r="D128" s="13">
         <v>98</v>
       </c>
+      <c r="E128" s="10">
+        <v>168</v>
+      </c>
       <c r="F128" s="4">
-        <f t="shared" si="0"/>
+        <f>D128*C128</f>
         <v>0</v>
       </c>
       <c r="G128" s="4">
-        <f t="shared" si="1"/>
+        <f>F128*0.2</f>
         <v>0</v>
       </c>
       <c r="H128" s="4">
-        <f t="shared" si="2"/>
+        <f>E128*C128</f>
         <v>0</v>
       </c>
     </row>
@@ -5071,16 +5456,19 @@
       <c r="D129" s="13">
         <v>98</v>
       </c>
+      <c r="E129" s="10">
+        <v>168</v>
+      </c>
       <c r="F129" s="4">
-        <f t="shared" si="0"/>
+        <f>D129*C129</f>
         <v>0</v>
       </c>
       <c r="G129" s="4">
-        <f t="shared" si="1"/>
+        <f>F129*0.2</f>
         <v>0</v>
       </c>
       <c r="H129" s="4">
-        <f t="shared" si="2"/>
+        <f>E129*C129</f>
         <v>0</v>
       </c>
     </row>
@@ -5097,16 +5485,19 @@
       <c r="D130" s="13">
         <v>98</v>
       </c>
+      <c r="E130" s="10">
+        <v>168</v>
+      </c>
       <c r="F130" s="4">
-        <f t="shared" si="0"/>
+        <f>D130*C130</f>
         <v>0</v>
       </c>
       <c r="G130" s="4">
-        <f t="shared" si="1"/>
+        <f>F130*0.2</f>
         <v>0</v>
       </c>
       <c r="H130" s="4">
-        <f t="shared" si="2"/>
+        <f>E130*C130</f>
         <v>0</v>
       </c>
     </row>
@@ -5123,16 +5514,19 @@
       <c r="D131" s="13">
         <v>226.1</v>
       </c>
+      <c r="E131" s="10">
+        <v>387.6</v>
+      </c>
       <c r="F131" s="4">
-        <f t="shared" si="0"/>
+        <f>D131*C131</f>
         <v>0</v>
       </c>
       <c r="G131" s="4">
-        <f t="shared" si="1"/>
+        <f>F131*0.2</f>
         <v>0</v>
       </c>
       <c r="H131" s="4">
-        <f t="shared" si="2"/>
+        <f>E131*C131</f>
         <v>0</v>
       </c>
     </row>
@@ -5149,16 +5543,19 @@
       <c r="D132" s="13">
         <v>138.6</v>
       </c>
+      <c r="E132" s="10">
+        <v>237.6</v>
+      </c>
       <c r="F132" s="4">
-        <f t="shared" ref="F132:F195" si="3">D132*C132</f>
+        <f>D132*C132</f>
         <v>0</v>
       </c>
       <c r="G132" s="4">
-        <f t="shared" ref="G132:G195" si="4">F132*0.2</f>
+        <f>F132*0.2</f>
         <v>0</v>
       </c>
       <c r="H132" s="4">
-        <f t="shared" ref="H132:H195" si="5">E132*C132</f>
+        <f>E132*C132</f>
         <v>0</v>
       </c>
     </row>
@@ -5175,16 +5572,19 @@
       <c r="D133" s="13">
         <v>305.2</v>
       </c>
+      <c r="E133" s="10">
+        <v>523.20000000000005</v>
+      </c>
       <c r="F133" s="4">
-        <f t="shared" si="3"/>
+        <f>D133*C133</f>
         <v>0</v>
       </c>
       <c r="G133" s="4">
-        <f t="shared" si="4"/>
+        <f>F133*0.2</f>
         <v>0</v>
       </c>
       <c r="H133" s="4">
-        <f t="shared" si="5"/>
+        <f>E133*C133</f>
         <v>0</v>
       </c>
     </row>
@@ -5201,16 +5601,19 @@
       <c r="D134" s="13">
         <v>35.700000000000003</v>
       </c>
+      <c r="E134" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F134" s="4">
-        <f t="shared" si="3"/>
+        <f>D134*C134</f>
         <v>0</v>
       </c>
       <c r="G134" s="4">
-        <f t="shared" si="4"/>
+        <f>F134*0.2</f>
         <v>0</v>
       </c>
       <c r="H134" s="4">
-        <f t="shared" si="5"/>
+        <f>E134*C134</f>
         <v>0</v>
       </c>
     </row>
@@ -5227,16 +5630,19 @@
       <c r="D135" s="13">
         <v>43.4</v>
       </c>
+      <c r="E135" s="10">
+        <v>74.400000000000006</v>
+      </c>
       <c r="F135" s="4">
-        <f t="shared" si="3"/>
+        <f>D135*C135</f>
         <v>0</v>
       </c>
       <c r="G135" s="4">
-        <f t="shared" si="4"/>
+        <f>F135*0.2</f>
         <v>0</v>
       </c>
       <c r="H135" s="4">
-        <f t="shared" si="5"/>
+        <f>E135*C135</f>
         <v>0</v>
       </c>
     </row>
@@ -5253,16 +5659,19 @@
       <c r="D136" s="13">
         <v>43.4</v>
       </c>
+      <c r="E136" s="10">
+        <v>74.400000000000006</v>
+      </c>
       <c r="F136" s="4">
-        <f t="shared" si="3"/>
+        <f>D136*C136</f>
         <v>0</v>
       </c>
       <c r="G136" s="4">
-        <f t="shared" si="4"/>
+        <f>F136*0.2</f>
         <v>0</v>
       </c>
       <c r="H136" s="4">
-        <f t="shared" si="5"/>
+        <f>E136*C136</f>
         <v>0</v>
       </c>
     </row>
@@ -5279,16 +5688,19 @@
       <c r="D137" s="13">
         <v>37.1</v>
       </c>
+      <c r="E137" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F137" s="4">
-        <f t="shared" si="3"/>
+        <f>D137*C137</f>
         <v>0</v>
       </c>
       <c r="G137" s="4">
-        <f t="shared" si="4"/>
+        <f>F137*0.2</f>
         <v>0</v>
       </c>
       <c r="H137" s="4">
-        <f t="shared" si="5"/>
+        <f>E137*C137</f>
         <v>0</v>
       </c>
     </row>
@@ -5305,16 +5717,19 @@
       <c r="D138" s="13">
         <v>37.1</v>
       </c>
+      <c r="E138" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F138" s="4">
-        <f t="shared" si="3"/>
+        <f>D138*C138</f>
         <v>0</v>
       </c>
       <c r="G138" s="4">
-        <f t="shared" si="4"/>
+        <f>F138*0.2</f>
         <v>0</v>
       </c>
       <c r="H138" s="4">
-        <f t="shared" si="5"/>
+        <f>E138*C138</f>
         <v>0</v>
       </c>
     </row>
@@ -5331,16 +5746,19 @@
       <c r="D139" s="13">
         <v>21</v>
       </c>
+      <c r="E139" s="10">
+        <v>36</v>
+      </c>
       <c r="F139" s="4">
-        <f t="shared" si="3"/>
+        <f>D139*C139</f>
         <v>0</v>
       </c>
       <c r="G139" s="4">
-        <f t="shared" si="4"/>
+        <f>F139*0.2</f>
         <v>0</v>
       </c>
       <c r="H139" s="4">
-        <f t="shared" si="5"/>
+        <f>E139*C139</f>
         <v>0</v>
       </c>
     </row>
@@ -5357,16 +5775,19 @@
       <c r="D140" s="13">
         <v>21</v>
       </c>
+      <c r="E140" s="10">
+        <v>36</v>
+      </c>
       <c r="F140" s="4">
-        <f t="shared" si="3"/>
+        <f>D140*C140</f>
         <v>0</v>
       </c>
       <c r="G140" s="4">
-        <f t="shared" si="4"/>
+        <f>F140*0.2</f>
         <v>0</v>
       </c>
       <c r="H140" s="4">
-        <f t="shared" si="5"/>
+        <f>E140*C140</f>
         <v>0</v>
       </c>
     </row>
@@ -5383,16 +5804,19 @@
       <c r="D141" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E141" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F141" s="4">
-        <f t="shared" si="3"/>
+        <f>D141*C141</f>
         <v>0</v>
       </c>
       <c r="G141" s="4">
-        <f t="shared" si="4"/>
+        <f>F141*0.2</f>
         <v>0</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="5"/>
+        <f>E141*C141</f>
         <v>0</v>
       </c>
     </row>
@@ -5409,16 +5833,19 @@
       <c r="D142" s="13">
         <v>3.5</v>
       </c>
+      <c r="E142" s="10">
+        <v>6</v>
+      </c>
       <c r="F142" s="4">
-        <f t="shared" si="3"/>
+        <f>D142*C142</f>
         <v>0</v>
       </c>
       <c r="G142" s="4">
-        <f t="shared" si="4"/>
+        <f>F142*0.2</f>
         <v>0</v>
       </c>
       <c r="H142" s="4">
-        <f t="shared" si="5"/>
+        <f>E142*C142</f>
         <v>0</v>
       </c>
     </row>
@@ -5435,16 +5862,19 @@
       <c r="D143" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E143" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F143" s="4">
-        <f t="shared" si="3"/>
+        <f>D143*C143</f>
         <v>0</v>
       </c>
       <c r="G143" s="4">
-        <f t="shared" si="4"/>
+        <f>F143*0.2</f>
         <v>0</v>
       </c>
       <c r="H143" s="4">
-        <f t="shared" si="5"/>
+        <f>E143*C143</f>
         <v>0</v>
       </c>
     </row>
@@ -5461,16 +5891,19 @@
       <c r="D144" s="13">
         <v>43.4</v>
       </c>
+      <c r="E144" s="10">
+        <v>74.400000000000006</v>
+      </c>
       <c r="F144" s="4">
-        <f t="shared" si="3"/>
+        <f>D144*C144</f>
         <v>0</v>
       </c>
       <c r="G144" s="4">
-        <f t="shared" si="4"/>
+        <f>F144*0.2</f>
         <v>0</v>
       </c>
       <c r="H144" s="4">
-        <f t="shared" si="5"/>
+        <f>E144*C144</f>
         <v>0</v>
       </c>
     </row>
@@ -5487,16 +5920,19 @@
       <c r="D145" s="13">
         <v>43.4</v>
       </c>
+      <c r="E145" s="10">
+        <v>74.400000000000006</v>
+      </c>
       <c r="F145" s="4">
-        <f t="shared" si="3"/>
+        <f>D145*C145</f>
         <v>0</v>
       </c>
       <c r="G145" s="4">
-        <f t="shared" si="4"/>
+        <f>F145*0.2</f>
         <v>0</v>
       </c>
       <c r="H145" s="4">
-        <f t="shared" si="5"/>
+        <f>E145*C145</f>
         <v>0</v>
       </c>
     </row>
@@ -5513,16 +5949,19 @@
       <c r="D146" s="13">
         <v>37.1</v>
       </c>
+      <c r="E146" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F146" s="4">
-        <f t="shared" si="3"/>
+        <f>D146*C146</f>
         <v>0</v>
       </c>
       <c r="G146" s="4">
-        <f t="shared" si="4"/>
+        <f>F146*0.2</f>
         <v>0</v>
       </c>
       <c r="H146" s="4">
-        <f t="shared" si="5"/>
+        <f>E146*C146</f>
         <v>0</v>
       </c>
     </row>
@@ -5539,16 +5978,19 @@
       <c r="D147" s="13">
         <v>37.1</v>
       </c>
+      <c r="E147" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F147" s="4">
-        <f t="shared" si="3"/>
+        <f>D147*C147</f>
         <v>0</v>
       </c>
       <c r="G147" s="4">
-        <f t="shared" si="4"/>
+        <f>F147*0.2</f>
         <v>0</v>
       </c>
       <c r="H147" s="4">
-        <f t="shared" si="5"/>
+        <f>E147*C147</f>
         <v>0</v>
       </c>
     </row>
@@ -5565,16 +6007,19 @@
       <c r="D148" s="13">
         <v>35.700000000000003</v>
       </c>
+      <c r="E148" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F148" s="4">
-        <f t="shared" si="3"/>
+        <f>D148*C148</f>
         <v>0</v>
       </c>
       <c r="G148" s="4">
-        <f t="shared" si="4"/>
+        <f>F148*0.2</f>
         <v>0</v>
       </c>
       <c r="H148" s="4">
-        <f t="shared" si="5"/>
+        <f>E148*C148</f>
         <v>0</v>
       </c>
     </row>
@@ -5591,16 +6036,19 @@
       <c r="D149" s="13">
         <v>35.700000000000003</v>
       </c>
+      <c r="E149" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F149" s="4">
-        <f t="shared" si="3"/>
+        <f>D149*C149</f>
         <v>0</v>
       </c>
       <c r="G149" s="4">
-        <f t="shared" si="4"/>
+        <f>F149*0.2</f>
         <v>0</v>
       </c>
       <c r="H149" s="4">
-        <f t="shared" si="5"/>
+        <f>E149*C149</f>
         <v>0</v>
       </c>
     </row>
@@ -5617,16 +6065,19 @@
       <c r="D150" s="13">
         <v>21</v>
       </c>
+      <c r="E150" s="10">
+        <v>36</v>
+      </c>
       <c r="F150" s="4">
-        <f t="shared" si="3"/>
+        <f>D150*C150</f>
         <v>0</v>
       </c>
       <c r="G150" s="4">
-        <f t="shared" si="4"/>
+        <f>F150*0.2</f>
         <v>0</v>
       </c>
       <c r="H150" s="4">
-        <f t="shared" si="5"/>
+        <f>E150*C150</f>
         <v>0</v>
       </c>
     </row>
@@ -5643,16 +6094,19 @@
       <c r="D151" s="13">
         <v>21</v>
       </c>
+      <c r="E151" s="10">
+        <v>36</v>
+      </c>
       <c r="F151" s="4">
-        <f t="shared" si="3"/>
+        <f>D151*C151</f>
         <v>0</v>
       </c>
       <c r="G151" s="4">
-        <f t="shared" si="4"/>
+        <f>F151*0.2</f>
         <v>0</v>
       </c>
       <c r="H151" s="4">
-        <f t="shared" si="5"/>
+        <f>E151*C151</f>
         <v>0</v>
       </c>
     </row>
@@ -5669,16 +6123,19 @@
       <c r="D152" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E152" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F152" s="4">
-        <f t="shared" si="3"/>
+        <f>D152*C152</f>
         <v>0</v>
       </c>
       <c r="G152" s="4">
-        <f t="shared" si="4"/>
+        <f>F152*0.2</f>
         <v>0</v>
       </c>
       <c r="H152" s="4">
-        <f t="shared" si="5"/>
+        <f>E152*C152</f>
         <v>0</v>
       </c>
     </row>
@@ -5695,16 +6152,19 @@
       <c r="D153" s="13">
         <v>3.5</v>
       </c>
+      <c r="E153" s="10">
+        <v>6</v>
+      </c>
       <c r="F153" s="4">
-        <f t="shared" si="3"/>
+        <f>D153*C153</f>
         <v>0</v>
       </c>
       <c r="G153" s="4">
-        <f t="shared" si="4"/>
+        <f>F153*0.2</f>
         <v>0</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" si="5"/>
+        <f>E153*C153</f>
         <v>0</v>
       </c>
     </row>
@@ -5721,16 +6181,19 @@
       <c r="D154" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E154" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F154" s="4">
-        <f t="shared" si="3"/>
+        <f>D154*C154</f>
         <v>0</v>
       </c>
       <c r="G154" s="4">
-        <f t="shared" si="4"/>
+        <f>F154*0.2</f>
         <v>0</v>
       </c>
       <c r="H154" s="4">
-        <f t="shared" si="5"/>
+        <f>E154*C154</f>
         <v>0</v>
       </c>
     </row>
@@ -5747,16 +6210,19 @@
       <c r="D155" s="13">
         <v>43.4</v>
       </c>
+      <c r="E155" s="10">
+        <v>74.400000000000006</v>
+      </c>
       <c r="F155" s="4">
-        <f t="shared" si="3"/>
+        <f>D155*C155</f>
         <v>0</v>
       </c>
       <c r="G155" s="4">
-        <f t="shared" si="4"/>
+        <f>F155*0.2</f>
         <v>0</v>
       </c>
       <c r="H155" s="4">
-        <f t="shared" si="5"/>
+        <f>E155*C155</f>
         <v>0</v>
       </c>
     </row>
@@ -5773,16 +6239,19 @@
       <c r="D156" s="13">
         <v>43.4</v>
       </c>
+      <c r="E156" s="10">
+        <v>74.400000000000006</v>
+      </c>
       <c r="F156" s="4">
-        <f t="shared" si="3"/>
+        <f>D156*C156</f>
         <v>0</v>
       </c>
       <c r="G156" s="4">
-        <f t="shared" si="4"/>
+        <f>F156*0.2</f>
         <v>0</v>
       </c>
       <c r="H156" s="4">
-        <f t="shared" si="5"/>
+        <f>E156*C156</f>
         <v>0</v>
       </c>
     </row>
@@ -5799,16 +6268,19 @@
       <c r="D157" s="13">
         <v>37.1</v>
       </c>
+      <c r="E157" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F157" s="4">
-        <f t="shared" si="3"/>
+        <f>D157*C157</f>
         <v>0</v>
       </c>
       <c r="G157" s="4">
-        <f t="shared" si="4"/>
+        <f>F157*0.2</f>
         <v>0</v>
       </c>
       <c r="H157" s="4">
-        <f t="shared" si="5"/>
+        <f>E157*C157</f>
         <v>0</v>
       </c>
     </row>
@@ -5825,16 +6297,19 @@
       <c r="D158" s="13">
         <v>37.1</v>
       </c>
+      <c r="E158" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F158" s="4">
-        <f t="shared" si="3"/>
+        <f>D158*C158</f>
         <v>0</v>
       </c>
       <c r="G158" s="4">
-        <f t="shared" si="4"/>
+        <f>F158*0.2</f>
         <v>0</v>
       </c>
       <c r="H158" s="4">
-        <f t="shared" si="5"/>
+        <f>E158*C158</f>
         <v>0</v>
       </c>
     </row>
@@ -5851,16 +6326,19 @@
       <c r="D159" s="13">
         <v>21</v>
       </c>
+      <c r="E159" s="10">
+        <v>36</v>
+      </c>
       <c r="F159" s="4">
-        <f t="shared" si="3"/>
+        <f>D159*C159</f>
         <v>0</v>
       </c>
       <c r="G159" s="4">
-        <f t="shared" si="4"/>
+        <f>F159*0.2</f>
         <v>0</v>
       </c>
       <c r="H159" s="4">
-        <f t="shared" si="5"/>
+        <f>E159*C159</f>
         <v>0</v>
       </c>
     </row>
@@ -5877,16 +6355,19 @@
       <c r="D160" s="13">
         <v>21</v>
       </c>
+      <c r="E160" s="10">
+        <v>36</v>
+      </c>
       <c r="F160" s="4">
-        <f t="shared" si="3"/>
+        <f>D160*C160</f>
         <v>0</v>
       </c>
       <c r="G160" s="4">
-        <f t="shared" si="4"/>
+        <f>F160*0.2</f>
         <v>0</v>
       </c>
       <c r="H160" s="4">
-        <f t="shared" si="5"/>
+        <f>E160*C160</f>
         <v>0</v>
       </c>
     </row>
@@ -5903,16 +6384,19 @@
       <c r="D161" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E161" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F161" s="4">
-        <f t="shared" si="3"/>
+        <f>D161*C161</f>
         <v>0</v>
       </c>
       <c r="G161" s="4">
-        <f t="shared" si="4"/>
+        <f>F161*0.2</f>
         <v>0</v>
       </c>
       <c r="H161" s="4">
-        <f t="shared" si="5"/>
+        <f>E161*C161</f>
         <v>0</v>
       </c>
     </row>
@@ -5929,16 +6413,19 @@
       <c r="D162" s="13">
         <v>3.5</v>
       </c>
+      <c r="E162" s="10">
+        <v>6</v>
+      </c>
       <c r="F162" s="4">
-        <f t="shared" si="3"/>
+        <f>D162*C162</f>
         <v>0</v>
       </c>
       <c r="G162" s="4">
-        <f t="shared" si="4"/>
+        <f>F162*0.2</f>
         <v>0</v>
       </c>
       <c r="H162" s="4">
-        <f t="shared" si="5"/>
+        <f>E162*C162</f>
         <v>0</v>
       </c>
     </row>
@@ -5955,16 +6442,19 @@
       <c r="D163" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E163" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F163" s="4">
-        <f t="shared" si="3"/>
+        <f>D163*C163</f>
         <v>0</v>
       </c>
       <c r="G163" s="4">
-        <f t="shared" si="4"/>
+        <f>F163*0.2</f>
         <v>0</v>
       </c>
       <c r="H163" s="4">
-        <f t="shared" si="5"/>
+        <f>E163*C163</f>
         <v>0</v>
       </c>
     </row>
@@ -5981,16 +6471,19 @@
       <c r="D164" s="13">
         <v>137.9</v>
       </c>
+      <c r="E164" s="10">
+        <v>236.4</v>
+      </c>
       <c r="F164" s="4">
-        <f t="shared" si="3"/>
+        <f>D164*C164</f>
         <v>0</v>
       </c>
       <c r="G164" s="4">
-        <f t="shared" si="4"/>
+        <f>F164*0.2</f>
         <v>0</v>
       </c>
       <c r="H164" s="4">
-        <f t="shared" si="5"/>
+        <f>E164*C164</f>
         <v>0</v>
       </c>
     </row>
@@ -6007,16 +6500,19 @@
       <c r="D165" s="13">
         <v>213.5</v>
       </c>
+      <c r="E165" s="10">
+        <v>366</v>
+      </c>
       <c r="F165" s="4">
-        <f t="shared" si="3"/>
+        <f>D165*C165</f>
         <v>0</v>
       </c>
       <c r="G165" s="4">
-        <f t="shared" si="4"/>
+        <f>F165*0.2</f>
         <v>0</v>
       </c>
       <c r="H165" s="4">
-        <f t="shared" si="5"/>
+        <f>E165*C165</f>
         <v>0</v>
       </c>
     </row>
@@ -6033,16 +6529,19 @@
       <c r="D166" s="13">
         <v>182.7</v>
       </c>
+      <c r="E166" s="10">
+        <v>313.2</v>
+      </c>
       <c r="F166" s="4">
-        <f t="shared" si="3"/>
+        <f>D166*C166</f>
         <v>0</v>
       </c>
       <c r="G166" s="4">
-        <f t="shared" si="4"/>
+        <f>F166*0.2</f>
         <v>0</v>
       </c>
       <c r="H166" s="4">
-        <f t="shared" si="5"/>
+        <f>E166*C166</f>
         <v>0</v>
       </c>
     </row>
@@ -6059,16 +6558,19 @@
       <c r="D167" s="13">
         <v>138.6</v>
       </c>
+      <c r="E167" s="10">
+        <v>237.6</v>
+      </c>
       <c r="F167" s="4">
-        <f t="shared" si="3"/>
+        <f>D167*C167</f>
         <v>0</v>
       </c>
       <c r="G167" s="4">
-        <f t="shared" si="4"/>
+        <f>F167*0.2</f>
         <v>0</v>
       </c>
       <c r="H167" s="4">
-        <f t="shared" si="5"/>
+        <f>E167*C167</f>
         <v>0</v>
       </c>
     </row>
@@ -6085,16 +6587,19 @@
       <c r="D168" s="13">
         <v>116.9</v>
       </c>
+      <c r="E168" s="10">
+        <v>200.4</v>
+      </c>
       <c r="F168" s="4">
-        <f t="shared" si="3"/>
+        <f>D168*C168</f>
         <v>0</v>
       </c>
       <c r="G168" s="4">
-        <f t="shared" si="4"/>
+        <f>F168*0.2</f>
         <v>0</v>
       </c>
       <c r="H168" s="4">
-        <f t="shared" si="5"/>
+        <f>E168*C168</f>
         <v>0</v>
       </c>
     </row>
@@ -6111,16 +6616,19 @@
       <c r="D169" s="13">
         <v>128.80000000000001</v>
       </c>
+      <c r="E169" s="10">
+        <v>128.80000000000001</v>
+      </c>
       <c r="F169" s="4">
-        <f t="shared" si="3"/>
+        <f>D169*C169</f>
         <v>0</v>
       </c>
       <c r="G169" s="4">
-        <f t="shared" si="4"/>
+        <f>F169*0.2</f>
         <v>0</v>
       </c>
       <c r="H169" s="4">
-        <f t="shared" si="5"/>
+        <f>E169*C169</f>
         <v>0</v>
       </c>
     </row>
@@ -6137,16 +6645,19 @@
       <c r="D170" s="13">
         <v>128.80000000000001</v>
       </c>
+      <c r="E170" s="10">
+        <v>220.8</v>
+      </c>
       <c r="F170" s="4">
-        <f t="shared" si="3"/>
+        <f>D170*C170</f>
         <v>0</v>
       </c>
       <c r="G170" s="4">
-        <f t="shared" si="4"/>
+        <f>F170*0.2</f>
         <v>0</v>
       </c>
       <c r="H170" s="4">
-        <f t="shared" si="5"/>
+        <f>E170*C170</f>
         <v>0</v>
       </c>
     </row>
@@ -6163,16 +6674,19 @@
       <c r="D171" s="13">
         <v>126</v>
       </c>
+      <c r="E171" s="10">
+        <v>216</v>
+      </c>
       <c r="F171" s="4">
-        <f t="shared" si="3"/>
+        <f>D171*C171</f>
         <v>0</v>
       </c>
       <c r="G171" s="4">
-        <f t="shared" si="4"/>
+        <f>F171*0.2</f>
         <v>0</v>
       </c>
       <c r="H171" s="4">
-        <f t="shared" si="5"/>
+        <f>E171*C171</f>
         <v>0</v>
       </c>
     </row>
@@ -6189,16 +6703,19 @@
       <c r="D172" s="13">
         <v>126</v>
       </c>
+      <c r="E172" s="10">
+        <v>216</v>
+      </c>
       <c r="F172" s="4">
-        <f t="shared" si="3"/>
+        <f>D172*C172</f>
         <v>0</v>
       </c>
       <c r="G172" s="4">
-        <f t="shared" si="4"/>
+        <f>F172*0.2</f>
         <v>0</v>
       </c>
       <c r="H172" s="4">
-        <f t="shared" si="5"/>
+        <f>E172*C172</f>
         <v>0</v>
       </c>
     </row>
@@ -6215,16 +6732,19 @@
       <c r="D173" s="13">
         <v>126</v>
       </c>
+      <c r="E173" s="10">
+        <v>216</v>
+      </c>
       <c r="F173" s="4">
-        <f t="shared" si="3"/>
+        <f>D173*C173</f>
         <v>0</v>
       </c>
       <c r="G173" s="4">
-        <f t="shared" si="4"/>
+        <f>F173*0.2</f>
         <v>0</v>
       </c>
       <c r="H173" s="4">
-        <f t="shared" si="5"/>
+        <f>E173*C173</f>
         <v>0</v>
       </c>
     </row>
@@ -6241,16 +6761,19 @@
       <c r="D174" s="13">
         <v>126</v>
       </c>
+      <c r="E174" s="10">
+        <v>216</v>
+      </c>
       <c r="F174" s="4">
-        <f t="shared" si="3"/>
+        <f>D174*C174</f>
         <v>0</v>
       </c>
       <c r="G174" s="4">
-        <f t="shared" si="4"/>
+        <f>F174*0.2</f>
         <v>0</v>
       </c>
       <c r="H174" s="4">
-        <f t="shared" si="5"/>
+        <f>E174*C174</f>
         <v>0</v>
       </c>
     </row>
@@ -6267,16 +6790,19 @@
       <c r="D175" s="13">
         <v>100.1</v>
       </c>
+      <c r="E175" s="10">
+        <v>171.6</v>
+      </c>
       <c r="F175" s="4">
-        <f t="shared" si="3"/>
+        <f>D175*C175</f>
         <v>0</v>
       </c>
       <c r="G175" s="4">
-        <f t="shared" si="4"/>
+        <f>F175*0.2</f>
         <v>0</v>
       </c>
       <c r="H175" s="4">
-        <f t="shared" si="5"/>
+        <f>E175*C175</f>
         <v>0</v>
       </c>
     </row>
@@ -6293,16 +6819,19 @@
       <c r="D176" s="13">
         <v>65.8</v>
       </c>
+      <c r="E176" s="10">
+        <v>112.8</v>
+      </c>
       <c r="F176" s="4">
-        <f t="shared" si="3"/>
+        <f>D176*C176</f>
         <v>0</v>
       </c>
       <c r="G176" s="4">
-        <f t="shared" si="4"/>
+        <f>F176*0.2</f>
         <v>0</v>
       </c>
       <c r="H176" s="4">
-        <f t="shared" si="5"/>
+        <f>E176*C176</f>
         <v>0</v>
       </c>
     </row>
@@ -6319,16 +6848,19 @@
       <c r="D177" s="13">
         <v>137.19999999999999</v>
       </c>
+      <c r="E177" s="10">
+        <v>235.2</v>
+      </c>
       <c r="F177" s="4">
-        <f t="shared" si="3"/>
+        <f>D177*C177</f>
         <v>0</v>
       </c>
       <c r="G177" s="4">
-        <f t="shared" si="4"/>
+        <f>F177*0.2</f>
         <v>0</v>
       </c>
       <c r="H177" s="4">
-        <f t="shared" si="5"/>
+        <f>E177*C177</f>
         <v>0</v>
       </c>
     </row>
@@ -6345,16 +6877,19 @@
       <c r="D178" s="13">
         <v>111.3</v>
       </c>
+      <c r="E178" s="10">
+        <v>190.8</v>
+      </c>
       <c r="F178" s="4">
-        <f t="shared" si="3"/>
+        <f>D178*C178</f>
         <v>0</v>
       </c>
       <c r="G178" s="4">
-        <f t="shared" si="4"/>
+        <f>F178*0.2</f>
         <v>0</v>
       </c>
       <c r="H178" s="4">
-        <f t="shared" si="5"/>
+        <f>E178*C178</f>
         <v>0</v>
       </c>
     </row>
@@ -6371,16 +6906,19 @@
       <c r="D179" s="13">
         <v>95.2</v>
       </c>
+      <c r="E179" s="10">
+        <v>163.19999999999999</v>
+      </c>
       <c r="F179" s="4">
-        <f t="shared" si="3"/>
+        <f>D179*C179</f>
         <v>0</v>
       </c>
       <c r="G179" s="4">
-        <f t="shared" si="4"/>
+        <f>F179*0.2</f>
         <v>0</v>
       </c>
       <c r="H179" s="4">
-        <f t="shared" si="5"/>
+        <f>E179*C179</f>
         <v>0</v>
       </c>
     </row>
@@ -6397,16 +6935,19 @@
       <c r="D180" s="13">
         <v>60.2</v>
       </c>
+      <c r="E180" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F180" s="4">
-        <f t="shared" si="3"/>
+        <f>D180*C180</f>
         <v>0</v>
       </c>
       <c r="G180" s="4">
-        <f t="shared" si="4"/>
+        <f>F180*0.2</f>
         <v>0</v>
       </c>
       <c r="H180" s="4">
-        <f t="shared" si="5"/>
+        <f>E180*C180</f>
         <v>0</v>
       </c>
     </row>
@@ -6423,16 +6964,19 @@
       <c r="D181" s="13">
         <v>60.2</v>
       </c>
+      <c r="E181" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F181" s="4">
-        <f t="shared" si="3"/>
+        <f>D181*C181</f>
         <v>0</v>
       </c>
       <c r="G181" s="4">
-        <f t="shared" si="4"/>
+        <f>F181*0.2</f>
         <v>0</v>
       </c>
       <c r="H181" s="4">
-        <f t="shared" si="5"/>
+        <f>E181*C181</f>
         <v>0</v>
       </c>
     </row>
@@ -6449,16 +6993,19 @@
       <c r="D182" s="13">
         <v>60.2</v>
       </c>
+      <c r="E182" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F182" s="4">
-        <f t="shared" si="3"/>
+        <f>D182*C182</f>
         <v>0</v>
       </c>
       <c r="G182" s="4">
-        <f t="shared" si="4"/>
+        <f>F182*0.2</f>
         <v>0</v>
       </c>
       <c r="H182" s="4">
-        <f t="shared" si="5"/>
+        <f>E182*C182</f>
         <v>0</v>
       </c>
     </row>
@@ -6475,16 +7022,19 @@
       <c r="D183" s="13">
         <v>56</v>
       </c>
+      <c r="E183" s="10">
+        <v>96</v>
+      </c>
       <c r="F183" s="4">
-        <f t="shared" si="3"/>
+        <f>D183*C183</f>
         <v>0</v>
       </c>
       <c r="G183" s="4">
-        <f t="shared" si="4"/>
+        <f>F183*0.2</f>
         <v>0</v>
       </c>
       <c r="H183" s="4">
-        <f t="shared" si="5"/>
+        <f>E183*C183</f>
         <v>0</v>
       </c>
     </row>
@@ -6501,16 +7051,19 @@
       <c r="D184" s="13">
         <v>56</v>
       </c>
+      <c r="E184" s="10">
+        <v>96</v>
+      </c>
       <c r="F184" s="4">
-        <f t="shared" si="3"/>
+        <f>D184*C184</f>
         <v>0</v>
       </c>
       <c r="G184" s="4">
-        <f t="shared" si="4"/>
+        <f>F184*0.2</f>
         <v>0</v>
       </c>
       <c r="H184" s="4">
-        <f t="shared" si="5"/>
+        <f>E184*C184</f>
         <v>0</v>
       </c>
     </row>
@@ -6527,16 +7080,19 @@
       <c r="D185" s="13">
         <v>30.1</v>
       </c>
+      <c r="E185" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F185" s="4">
-        <f t="shared" si="3"/>
+        <f>D185*C185</f>
         <v>0</v>
       </c>
       <c r="G185" s="4">
-        <f t="shared" si="4"/>
+        <f>F185*0.2</f>
         <v>0</v>
       </c>
       <c r="H185" s="4">
-        <f t="shared" si="5"/>
+        <f>E185*C185</f>
         <v>0</v>
       </c>
     </row>
@@ -6553,16 +7109,19 @@
       <c r="D186" s="13">
         <v>28.7</v>
       </c>
+      <c r="E186" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F186" s="4">
-        <f t="shared" si="3"/>
+        <f>D186*C186</f>
         <v>0</v>
       </c>
       <c r="G186" s="4">
-        <f t="shared" si="4"/>
+        <f>F186*0.2</f>
         <v>0</v>
       </c>
       <c r="H186" s="4">
-        <f t="shared" si="5"/>
+        <f>E186*C186</f>
         <v>0</v>
       </c>
     </row>
@@ -6579,16 +7138,19 @@
       <c r="D187" s="13">
         <v>28.7</v>
       </c>
+      <c r="E187" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F187" s="4">
-        <f t="shared" si="3"/>
+        <f>D187*C187</f>
         <v>0</v>
       </c>
       <c r="G187" s="4">
-        <f t="shared" si="4"/>
+        <f>F187*0.2</f>
         <v>0</v>
       </c>
       <c r="H187" s="4">
-        <f t="shared" si="5"/>
+        <f>E187*C187</f>
         <v>0</v>
       </c>
     </row>
@@ -6605,16 +7167,19 @@
       <c r="D188" s="13">
         <v>25.2</v>
       </c>
+      <c r="E188" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F188" s="4">
-        <f t="shared" si="3"/>
+        <f>D188*C188</f>
         <v>0</v>
       </c>
       <c r="G188" s="4">
-        <f t="shared" si="4"/>
+        <f>F188*0.2</f>
         <v>0</v>
       </c>
       <c r="H188" s="4">
-        <f t="shared" si="5"/>
+        <f>E188*C188</f>
         <v>0</v>
       </c>
     </row>
@@ -6631,16 +7196,19 @@
       <c r="D189" s="13">
         <v>25.2</v>
       </c>
+      <c r="E189" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F189" s="4">
-        <f t="shared" si="3"/>
+        <f>D189*C189</f>
         <v>0</v>
       </c>
       <c r="G189" s="4">
-        <f t="shared" si="4"/>
+        <f>F189*0.2</f>
         <v>0</v>
       </c>
       <c r="H189" s="4">
-        <f t="shared" si="5"/>
+        <f>E189*C189</f>
         <v>0</v>
       </c>
     </row>
@@ -6657,16 +7225,19 @@
       <c r="D190" s="13">
         <v>60.2</v>
       </c>
+      <c r="E190" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F190" s="4">
-        <f t="shared" si="3"/>
+        <f>D190*C190</f>
         <v>0</v>
       </c>
       <c r="G190" s="4">
-        <f t="shared" si="4"/>
+        <f>F190*0.2</f>
         <v>0</v>
       </c>
       <c r="H190" s="4">
-        <f t="shared" si="5"/>
+        <f>E190*C190</f>
         <v>0</v>
       </c>
     </row>
@@ -6683,16 +7254,19 @@
       <c r="D191" s="13">
         <v>60.2</v>
       </c>
+      <c r="E191" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F191" s="4">
-        <f t="shared" si="3"/>
+        <f>D191*C191</f>
         <v>0</v>
       </c>
       <c r="G191" s="4">
-        <f t="shared" si="4"/>
+        <f>F191*0.2</f>
         <v>0</v>
       </c>
       <c r="H191" s="4">
-        <f t="shared" si="5"/>
+        <f>E191*C191</f>
         <v>0</v>
       </c>
     </row>
@@ -6709,16 +7283,19 @@
       <c r="D192" s="13">
         <v>60.2</v>
       </c>
+      <c r="E192" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F192" s="4">
-        <f t="shared" si="3"/>
+        <f>D192*C192</f>
         <v>0</v>
       </c>
       <c r="G192" s="4">
-        <f t="shared" si="4"/>
+        <f>F192*0.2</f>
         <v>0</v>
       </c>
       <c r="H192" s="4">
-        <f t="shared" si="5"/>
+        <f>E192*C192</f>
         <v>0</v>
       </c>
     </row>
@@ -6735,16 +7312,19 @@
       <c r="D193" s="13">
         <v>56</v>
       </c>
+      <c r="E193" s="10">
+        <v>96</v>
+      </c>
       <c r="F193" s="4">
-        <f t="shared" si="3"/>
+        <f>D193*C193</f>
         <v>0</v>
       </c>
       <c r="G193" s="4">
-        <f t="shared" si="4"/>
+        <f>F193*0.2</f>
         <v>0</v>
       </c>
       <c r="H193" s="4">
-        <f t="shared" si="5"/>
+        <f>E193*C193</f>
         <v>0</v>
       </c>
     </row>
@@ -6761,16 +7341,19 @@
       <c r="D194" s="13">
         <v>56</v>
       </c>
+      <c r="E194" s="10">
+        <v>96</v>
+      </c>
       <c r="F194" s="4">
-        <f t="shared" si="3"/>
+        <f>D194*C194</f>
         <v>0</v>
       </c>
       <c r="G194" s="4">
-        <f t="shared" si="4"/>
+        <f>F194*0.2</f>
         <v>0</v>
       </c>
       <c r="H194" s="4">
-        <f t="shared" si="5"/>
+        <f>E194*C194</f>
         <v>0</v>
       </c>
     </row>
@@ -6787,16 +7370,19 @@
       <c r="D195" s="13">
         <v>60.2</v>
       </c>
+      <c r="E195" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F195" s="4">
-        <f t="shared" si="3"/>
+        <f>D195*C195</f>
         <v>0</v>
       </c>
       <c r="G195" s="4">
-        <f t="shared" si="4"/>
+        <f>F195*0.2</f>
         <v>0</v>
       </c>
       <c r="H195" s="4">
-        <f t="shared" si="5"/>
+        <f>E195*C195</f>
         <v>0</v>
       </c>
     </row>
@@ -6813,16 +7399,19 @@
       <c r="D196" s="13">
         <v>30.1</v>
       </c>
+      <c r="E196" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F196" s="4">
-        <f t="shared" ref="F196:F259" si="6">D196*C196</f>
+        <f>D196*C196</f>
         <v>0</v>
       </c>
       <c r="G196" s="4">
-        <f t="shared" ref="G196:G259" si="7">F196*0.2</f>
+        <f>F196*0.2</f>
         <v>0</v>
       </c>
       <c r="H196" s="4">
-        <f t="shared" ref="H196:H259" si="8">E196*C196</f>
+        <f>E196*C196</f>
         <v>0</v>
       </c>
     </row>
@@ -6839,16 +7428,19 @@
       <c r="D197" s="13">
         <v>28.7</v>
       </c>
+      <c r="E197" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F197" s="4">
-        <f t="shared" si="6"/>
+        <f>D197*C197</f>
         <v>0</v>
       </c>
       <c r="G197" s="4">
-        <f t="shared" si="7"/>
+        <f>F197*0.2</f>
         <v>0</v>
       </c>
       <c r="H197" s="4">
-        <f t="shared" si="8"/>
+        <f>E197*C197</f>
         <v>0</v>
       </c>
     </row>
@@ -6865,16 +7457,19 @@
       <c r="D198" s="13">
         <v>28.7</v>
       </c>
+      <c r="E198" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F198" s="4">
-        <f t="shared" si="6"/>
+        <f>D198*C198</f>
         <v>0</v>
       </c>
       <c r="G198" s="4">
-        <f t="shared" si="7"/>
+        <f>F198*0.2</f>
         <v>0</v>
       </c>
       <c r="H198" s="4">
-        <f t="shared" si="8"/>
+        <f>E198*C198</f>
         <v>0</v>
       </c>
     </row>
@@ -6891,16 +7486,19 @@
       <c r="D199" s="13">
         <v>25.2</v>
       </c>
+      <c r="E199" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F199" s="4">
-        <f t="shared" si="6"/>
+        <f>D199*C199</f>
         <v>0</v>
       </c>
       <c r="G199" s="4">
-        <f t="shared" si="7"/>
+        <f>F199*0.2</f>
         <v>0</v>
       </c>
       <c r="H199" s="4">
-        <f t="shared" si="8"/>
+        <f>E199*C199</f>
         <v>0</v>
       </c>
     </row>
@@ -6917,16 +7515,19 @@
       <c r="D200" s="13">
         <v>25.2</v>
       </c>
+      <c r="E200" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F200" s="4">
-        <f t="shared" si="6"/>
+        <f>D200*C200</f>
         <v>0</v>
       </c>
       <c r="G200" s="4">
-        <f t="shared" si="7"/>
+        <f>F200*0.2</f>
         <v>0</v>
       </c>
       <c r="H200" s="4">
-        <f t="shared" si="8"/>
+        <f>E200*C200</f>
         <v>0</v>
       </c>
     </row>
@@ -6943,16 +7544,19 @@
       <c r="D201" s="13">
         <v>60.2</v>
       </c>
+      <c r="E201" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F201" s="4">
-        <f t="shared" si="6"/>
+        <f>D201*C201</f>
         <v>0</v>
       </c>
       <c r="G201" s="4">
-        <f t="shared" si="7"/>
+        <f>F201*0.2</f>
         <v>0</v>
       </c>
       <c r="H201" s="4">
-        <f t="shared" si="8"/>
+        <f>E201*C201</f>
         <v>0</v>
       </c>
     </row>
@@ -6969,16 +7573,19 @@
       <c r="D202" s="13">
         <v>60.2</v>
       </c>
+      <c r="E202" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F202" s="4">
-        <f t="shared" si="6"/>
+        <f>D202*C202</f>
         <v>0</v>
       </c>
       <c r="G202" s="4">
-        <f t="shared" si="7"/>
+        <f>F202*0.2</f>
         <v>0</v>
       </c>
       <c r="H202" s="4">
-        <f t="shared" si="8"/>
+        <f>E202*C202</f>
         <v>0</v>
       </c>
     </row>
@@ -6995,16 +7602,19 @@
       <c r="D203" s="13">
         <v>60.2</v>
       </c>
+      <c r="E203" s="10">
+        <v>103.2</v>
+      </c>
       <c r="F203" s="4">
-        <f t="shared" si="6"/>
+        <f>D203*C203</f>
         <v>0</v>
       </c>
       <c r="G203" s="4">
-        <f t="shared" si="7"/>
+        <f>F203*0.2</f>
         <v>0</v>
       </c>
       <c r="H203" s="4">
-        <f t="shared" si="8"/>
+        <f>E203*C203</f>
         <v>0</v>
       </c>
     </row>
@@ -7021,16 +7631,19 @@
       <c r="D204" s="13">
         <v>56</v>
       </c>
+      <c r="E204" s="10">
+        <v>96</v>
+      </c>
       <c r="F204" s="4">
-        <f t="shared" si="6"/>
+        <f>D204*C204</f>
         <v>0</v>
       </c>
       <c r="G204" s="4">
-        <f t="shared" si="7"/>
+        <f>F204*0.2</f>
         <v>0</v>
       </c>
       <c r="H204" s="4">
-        <f t="shared" si="8"/>
+        <f>E204*C204</f>
         <v>0</v>
       </c>
     </row>
@@ -7047,16 +7660,19 @@
       <c r="D205" s="13">
         <v>56</v>
       </c>
+      <c r="E205" s="10">
+        <v>96</v>
+      </c>
       <c r="F205" s="4">
-        <f t="shared" si="6"/>
+        <f>D205*C205</f>
         <v>0</v>
       </c>
       <c r="G205" s="4">
-        <f t="shared" si="7"/>
+        <f>F205*0.2</f>
         <v>0</v>
       </c>
       <c r="H205" s="4">
-        <f t="shared" si="8"/>
+        <f>E205*C205</f>
         <v>0</v>
       </c>
     </row>
@@ -7073,16 +7689,19 @@
       <c r="D206" s="13">
         <v>30.1</v>
       </c>
+      <c r="E206" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F206" s="4">
-        <f t="shared" si="6"/>
+        <f>D206*C206</f>
         <v>0</v>
       </c>
       <c r="G206" s="4">
-        <f t="shared" si="7"/>
+        <f>F206*0.2</f>
         <v>0</v>
       </c>
       <c r="H206" s="4">
-        <f t="shared" si="8"/>
+        <f>E206*C206</f>
         <v>0</v>
       </c>
     </row>
@@ -7099,16 +7718,19 @@
       <c r="D207" s="13">
         <v>28.7</v>
       </c>
+      <c r="E207" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F207" s="4">
-        <f t="shared" si="6"/>
+        <f>D207*C207</f>
         <v>0</v>
       </c>
       <c r="G207" s="4">
-        <f t="shared" si="7"/>
+        <f>F207*0.2</f>
         <v>0</v>
       </c>
       <c r="H207" s="4">
-        <f t="shared" si="8"/>
+        <f>E207*C207</f>
         <v>0</v>
       </c>
     </row>
@@ -7125,16 +7747,19 @@
       <c r="D208" s="13">
         <v>28.7</v>
       </c>
+      <c r="E208" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F208" s="4">
-        <f t="shared" si="6"/>
+        <f>D208*C208</f>
         <v>0</v>
       </c>
       <c r="G208" s="4">
-        <f t="shared" si="7"/>
+        <f>F208*0.2</f>
         <v>0</v>
       </c>
       <c r="H208" s="4">
-        <f t="shared" si="8"/>
+        <f>E208*C208</f>
         <v>0</v>
       </c>
     </row>
@@ -7151,16 +7776,19 @@
       <c r="D209" s="13">
         <v>25.2</v>
       </c>
+      <c r="E209" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F209" s="4">
-        <f t="shared" si="6"/>
+        <f>D209*C209</f>
         <v>0</v>
       </c>
       <c r="G209" s="4">
-        <f t="shared" si="7"/>
+        <f>F209*0.2</f>
         <v>0</v>
       </c>
       <c r="H209" s="4">
-        <f t="shared" si="8"/>
+        <f>E209*C209</f>
         <v>0</v>
       </c>
     </row>
@@ -7177,16 +7805,19 @@
       <c r="D210" s="13">
         <v>25.2</v>
       </c>
+      <c r="E210" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F210" s="4">
-        <f t="shared" si="6"/>
+        <f>D210*C210</f>
         <v>0</v>
       </c>
       <c r="G210" s="4">
-        <f t="shared" si="7"/>
+        <f>F210*0.2</f>
         <v>0</v>
       </c>
       <c r="H210" s="4">
-        <f t="shared" si="8"/>
+        <f>E210*C210</f>
         <v>0</v>
       </c>
     </row>
@@ -7203,16 +7834,19 @@
       <c r="D211" s="13">
         <v>66.5</v>
       </c>
+      <c r="E211" s="10">
+        <v>114</v>
+      </c>
       <c r="F211" s="4">
-        <f t="shared" si="6"/>
+        <f>D211*C211</f>
         <v>0</v>
       </c>
       <c r="G211" s="4">
-        <f t="shared" si="7"/>
+        <f>F211*0.2</f>
         <v>0</v>
       </c>
       <c r="H211" s="4">
-        <f t="shared" si="8"/>
+        <f>E211*C211</f>
         <v>0</v>
       </c>
     </row>
@@ -7229,16 +7863,19 @@
       <c r="D212" s="13">
         <v>66.5</v>
       </c>
+      <c r="E212" s="10">
+        <v>114</v>
+      </c>
       <c r="F212" s="4">
-        <f t="shared" si="6"/>
+        <f>D212*C212</f>
         <v>0</v>
       </c>
       <c r="G212" s="4">
-        <f t="shared" si="7"/>
+        <f>F212*0.2</f>
         <v>0</v>
       </c>
       <c r="H212" s="4">
-        <f t="shared" si="8"/>
+        <f>E212*C212</f>
         <v>0</v>
       </c>
     </row>
@@ -7255,16 +7892,19 @@
       <c r="D213" s="13">
         <v>66.5</v>
       </c>
+      <c r="E213" s="10">
+        <v>114</v>
+      </c>
       <c r="F213" s="4">
-        <f t="shared" si="6"/>
+        <f>D213*C213</f>
         <v>0</v>
       </c>
       <c r="G213" s="4">
-        <f t="shared" si="7"/>
+        <f>F213*0.2</f>
         <v>0</v>
       </c>
       <c r="H213" s="4">
-        <f t="shared" si="8"/>
+        <f>E213*C213</f>
         <v>0</v>
       </c>
     </row>
@@ -7281,16 +7921,19 @@
       <c r="D214" s="13">
         <v>66.5</v>
       </c>
+      <c r="E214" s="10">
+        <v>114</v>
+      </c>
       <c r="F214" s="4">
-        <f t="shared" si="6"/>
+        <f>D214*C214</f>
         <v>0</v>
       </c>
       <c r="G214" s="4">
-        <f t="shared" si="7"/>
+        <f>F214*0.2</f>
         <v>0</v>
       </c>
       <c r="H214" s="4">
-        <f t="shared" si="8"/>
+        <f>E214*C214</f>
         <v>0</v>
       </c>
     </row>
@@ -7307,16 +7950,19 @@
       <c r="D215" s="13">
         <v>61.6</v>
       </c>
+      <c r="E215" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F215" s="4">
-        <f t="shared" si="6"/>
+        <f>D215*C215</f>
         <v>0</v>
       </c>
       <c r="G215" s="4">
-        <f t="shared" si="7"/>
+        <f>F215*0.2</f>
         <v>0</v>
       </c>
       <c r="H215" s="4">
-        <f t="shared" si="8"/>
+        <f>E215*C215</f>
         <v>0</v>
       </c>
     </row>
@@ -7333,16 +7979,19 @@
       <c r="D216" s="13">
         <v>61.6</v>
       </c>
+      <c r="E216" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F216" s="4">
-        <f t="shared" si="6"/>
+        <f>D216*C216</f>
         <v>0</v>
       </c>
       <c r="G216" s="4">
-        <f t="shared" si="7"/>
+        <f>F216*0.2</f>
         <v>0</v>
       </c>
       <c r="H216" s="4">
-        <f t="shared" si="8"/>
+        <f>E216*C216</f>
         <v>0</v>
       </c>
     </row>
@@ -7359,16 +8008,19 @@
       <c r="D217" s="13">
         <v>61.6</v>
       </c>
+      <c r="E217" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F217" s="4">
-        <f t="shared" si="6"/>
+        <f>D217*C217</f>
         <v>0</v>
       </c>
       <c r="G217" s="4">
-        <f t="shared" si="7"/>
+        <f>F217*0.2</f>
         <v>0</v>
       </c>
       <c r="H217" s="4">
-        <f t="shared" si="8"/>
+        <f>E217*C217</f>
         <v>0</v>
       </c>
     </row>
@@ -7385,16 +8037,19 @@
       <c r="D218" s="13">
         <v>30.1</v>
       </c>
+      <c r="E218" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F218" s="4">
-        <f t="shared" si="6"/>
+        <f>D218*C218</f>
         <v>0</v>
       </c>
       <c r="G218" s="4">
-        <f t="shared" si="7"/>
+        <f>F218*0.2</f>
         <v>0</v>
       </c>
       <c r="H218" s="4">
-        <f t="shared" si="8"/>
+        <f>E218*C218</f>
         <v>0</v>
       </c>
     </row>
@@ -7411,16 +8066,19 @@
       <c r="D219" s="13">
         <v>30.1</v>
       </c>
+      <c r="E219" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F219" s="4">
-        <f t="shared" si="6"/>
+        <f>D219*C219</f>
         <v>0</v>
       </c>
       <c r="G219" s="4">
-        <f t="shared" si="7"/>
+        <f>F219*0.2</f>
         <v>0</v>
       </c>
       <c r="H219" s="4">
-        <f t="shared" si="8"/>
+        <f>E219*C219</f>
         <v>0</v>
       </c>
     </row>
@@ -7437,16 +8095,19 @@
       <c r="D220" s="13">
         <v>30.1</v>
       </c>
+      <c r="E220" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F220" s="4">
-        <f t="shared" si="6"/>
+        <f>D220*C220</f>
         <v>0</v>
       </c>
       <c r="G220" s="4">
-        <f t="shared" si="7"/>
+        <f>F220*0.2</f>
         <v>0</v>
       </c>
       <c r="H220" s="4">
-        <f t="shared" si="8"/>
+        <f>E220*C220</f>
         <v>0</v>
       </c>
     </row>
@@ -7463,16 +8124,19 @@
       <c r="D221" s="13">
         <v>30.1</v>
       </c>
+      <c r="E221" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F221" s="4">
-        <f t="shared" si="6"/>
+        <f>D221*C221</f>
         <v>0</v>
       </c>
       <c r="G221" s="4">
-        <f t="shared" si="7"/>
+        <f>F221*0.2</f>
         <v>0</v>
       </c>
       <c r="H221" s="4">
-        <f t="shared" si="8"/>
+        <f>E221*C221</f>
         <v>0</v>
       </c>
     </row>
@@ -7489,16 +8153,19 @@
       <c r="D222" s="13">
         <v>25.2</v>
       </c>
+      <c r="E222" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F222" s="4">
-        <f t="shared" si="6"/>
+        <f>D222*C222</f>
         <v>0</v>
       </c>
       <c r="G222" s="4">
-        <f t="shared" si="7"/>
+        <f>F222*0.2</f>
         <v>0</v>
       </c>
       <c r="H222" s="4">
-        <f t="shared" si="8"/>
+        <f>E222*C222</f>
         <v>0</v>
       </c>
     </row>
@@ -7515,16 +8182,19 @@
       <c r="D223" s="13">
         <v>25.2</v>
       </c>
+      <c r="E223" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F223" s="4">
-        <f t="shared" si="6"/>
+        <f>D223*C223</f>
         <v>0</v>
       </c>
       <c r="G223" s="4">
-        <f t="shared" si="7"/>
+        <f>F223*0.2</f>
         <v>0</v>
       </c>
       <c r="H223" s="4">
-        <f t="shared" si="8"/>
+        <f>E223*C223</f>
         <v>0</v>
       </c>
     </row>
@@ -7541,16 +8211,19 @@
       <c r="D224" s="13">
         <v>25.2</v>
       </c>
+      <c r="E224" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F224" s="4">
-        <f t="shared" si="6"/>
+        <f>D224*C224</f>
         <v>0</v>
       </c>
       <c r="G224" s="4">
-        <f t="shared" si="7"/>
+        <f>F224*0.2</f>
         <v>0</v>
       </c>
       <c r="H224" s="4">
-        <f t="shared" si="8"/>
+        <f>E224*C224</f>
         <v>0</v>
       </c>
     </row>
@@ -7567,16 +8240,19 @@
       <c r="D225" s="13">
         <v>66.5</v>
       </c>
+      <c r="E225" s="10">
+        <v>114</v>
+      </c>
       <c r="F225" s="4">
-        <f t="shared" si="6"/>
+        <f>D225*C225</f>
         <v>0</v>
       </c>
       <c r="G225" s="4">
-        <f t="shared" si="7"/>
+        <f>F225*0.2</f>
         <v>0</v>
       </c>
       <c r="H225" s="4">
-        <f t="shared" si="8"/>
+        <f>E225*C225</f>
         <v>0</v>
       </c>
     </row>
@@ -7593,16 +8269,19 @@
       <c r="D226" s="13">
         <v>66.5</v>
       </c>
+      <c r="E226" s="10">
+        <v>114</v>
+      </c>
       <c r="F226" s="4">
-        <f t="shared" si="6"/>
+        <f>D226*C226</f>
         <v>0</v>
       </c>
       <c r="G226" s="4">
-        <f t="shared" si="7"/>
+        <f>F226*0.2</f>
         <v>0</v>
       </c>
       <c r="H226" s="4">
-        <f t="shared" si="8"/>
+        <f>E226*C226</f>
         <v>0</v>
       </c>
     </row>
@@ -7619,16 +8298,19 @@
       <c r="D227" s="13">
         <v>66.5</v>
       </c>
+      <c r="E227" s="10">
+        <v>114</v>
+      </c>
       <c r="F227" s="4">
-        <f t="shared" si="6"/>
+        <f>D227*C227</f>
         <v>0</v>
       </c>
       <c r="G227" s="4">
-        <f t="shared" si="7"/>
+        <f>F227*0.2</f>
         <v>0</v>
       </c>
       <c r="H227" s="4">
-        <f t="shared" si="8"/>
+        <f>E227*C227</f>
         <v>0</v>
       </c>
     </row>
@@ -7645,16 +8327,19 @@
       <c r="D228" s="13">
         <v>66.5</v>
       </c>
+      <c r="E228" s="10">
+        <v>114</v>
+      </c>
       <c r="F228" s="4">
-        <f t="shared" si="6"/>
+        <f>D228*C228</f>
         <v>0</v>
       </c>
       <c r="G228" s="4">
-        <f t="shared" si="7"/>
+        <f>F228*0.2</f>
         <v>0</v>
       </c>
       <c r="H228" s="4">
-        <f t="shared" si="8"/>
+        <f>E228*C228</f>
         <v>0</v>
       </c>
     </row>
@@ -7671,16 +8356,19 @@
       <c r="D229" s="13">
         <v>61.6</v>
       </c>
+      <c r="E229" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F229" s="4">
-        <f t="shared" si="6"/>
+        <f>D229*C229</f>
         <v>0</v>
       </c>
       <c r="G229" s="4">
-        <f t="shared" si="7"/>
+        <f>F229*0.2</f>
         <v>0</v>
       </c>
       <c r="H229" s="4">
-        <f t="shared" si="8"/>
+        <f>E229*C229</f>
         <v>0</v>
       </c>
     </row>
@@ -7697,16 +8385,19 @@
       <c r="D230" s="13">
         <v>61.6</v>
       </c>
+      <c r="E230" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F230" s="4">
-        <f t="shared" si="6"/>
+        <f>D230*C230</f>
         <v>0</v>
       </c>
       <c r="G230" s="4">
-        <f t="shared" si="7"/>
+        <f>F230*0.2</f>
         <v>0</v>
       </c>
       <c r="H230" s="4">
-        <f t="shared" si="8"/>
+        <f>E230*C230</f>
         <v>0</v>
       </c>
     </row>
@@ -7723,16 +8414,19 @@
       <c r="D231" s="13">
         <v>61.6</v>
       </c>
+      <c r="E231" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F231" s="4">
-        <f t="shared" si="6"/>
+        <f>D231*C231</f>
         <v>0</v>
       </c>
       <c r="G231" s="4">
-        <f t="shared" si="7"/>
+        <f>F231*0.2</f>
         <v>0</v>
       </c>
       <c r="H231" s="4">
-        <f t="shared" si="8"/>
+        <f>E231*C231</f>
         <v>0</v>
       </c>
     </row>
@@ -7749,16 +8443,19 @@
       <c r="D232" s="13">
         <v>28.7</v>
       </c>
+      <c r="E232" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F232" s="4">
-        <f t="shared" si="6"/>
+        <f>D232*C232</f>
         <v>0</v>
       </c>
       <c r="G232" s="4">
-        <f t="shared" si="7"/>
+        <f>F232*0.2</f>
         <v>0</v>
       </c>
       <c r="H232" s="4">
-        <f t="shared" si="8"/>
+        <f>E232*C232</f>
         <v>0</v>
       </c>
     </row>
@@ -7775,16 +8472,19 @@
       <c r="D233" s="13">
         <v>28.7</v>
       </c>
+      <c r="E233" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F233" s="4">
-        <f t="shared" si="6"/>
+        <f>D233*C233</f>
         <v>0</v>
       </c>
       <c r="G233" s="4">
-        <f t="shared" si="7"/>
+        <f>F233*0.2</f>
         <v>0</v>
       </c>
       <c r="H233" s="4">
-        <f t="shared" si="8"/>
+        <f>E233*C233</f>
         <v>0</v>
       </c>
     </row>
@@ -7801,16 +8501,19 @@
       <c r="D234" s="13">
         <v>28.7</v>
       </c>
+      <c r="E234" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F234" s="4">
-        <f t="shared" si="6"/>
+        <f>D234*C234</f>
         <v>0</v>
       </c>
       <c r="G234" s="4">
-        <f t="shared" si="7"/>
+        <f>F234*0.2</f>
         <v>0</v>
       </c>
       <c r="H234" s="4">
-        <f t="shared" si="8"/>
+        <f>E234*C234</f>
         <v>0</v>
       </c>
     </row>
@@ -7827,16 +8530,19 @@
       <c r="D235" s="13">
         <v>28.7</v>
       </c>
+      <c r="E235" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F235" s="4">
-        <f t="shared" si="6"/>
+        <f>D235*C235</f>
         <v>0</v>
       </c>
       <c r="G235" s="4">
-        <f t="shared" si="7"/>
+        <f>F235*0.2</f>
         <v>0</v>
       </c>
       <c r="H235" s="4">
-        <f t="shared" si="8"/>
+        <f>E235*C235</f>
         <v>0</v>
       </c>
     </row>
@@ -7853,16 +8559,19 @@
       <c r="D236" s="13">
         <v>23.8</v>
       </c>
+      <c r="E236" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F236" s="4">
-        <f t="shared" si="6"/>
+        <f>D236*C236</f>
         <v>0</v>
       </c>
       <c r="G236" s="4">
-        <f t="shared" si="7"/>
+        <f>F236*0.2</f>
         <v>0</v>
       </c>
       <c r="H236" s="4">
-        <f t="shared" si="8"/>
+        <f>E236*C236</f>
         <v>0</v>
       </c>
     </row>
@@ -7879,16 +8588,19 @@
       <c r="D237" s="13">
         <v>23.8</v>
       </c>
+      <c r="E237" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F237" s="4">
-        <f t="shared" si="6"/>
+        <f>D237*C237</f>
         <v>0</v>
       </c>
       <c r="G237" s="4">
-        <f t="shared" si="7"/>
+        <f>F237*0.2</f>
         <v>0</v>
       </c>
       <c r="H237" s="4">
-        <f t="shared" si="8"/>
+        <f>E237*C237</f>
         <v>0</v>
       </c>
     </row>
@@ -7905,16 +8617,19 @@
       <c r="D238" s="13">
         <v>23.8</v>
       </c>
+      <c r="E238" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F238" s="4">
-        <f t="shared" si="6"/>
+        <f>D238*C238</f>
         <v>0</v>
       </c>
       <c r="G238" s="4">
-        <f t="shared" si="7"/>
+        <f>F238*0.2</f>
         <v>0</v>
       </c>
       <c r="H238" s="4">
-        <f t="shared" si="8"/>
+        <f>E238*C238</f>
         <v>0</v>
       </c>
     </row>
@@ -7931,16 +8646,19 @@
       <c r="D239" s="13">
         <v>66.5</v>
       </c>
+      <c r="E239" s="10">
+        <v>114</v>
+      </c>
       <c r="F239" s="4">
-        <f t="shared" si="6"/>
+        <f>D239*C239</f>
         <v>0</v>
       </c>
       <c r="G239" s="4">
-        <f t="shared" si="7"/>
+        <f>F239*0.2</f>
         <v>0</v>
       </c>
       <c r="H239" s="4">
-        <f t="shared" si="8"/>
+        <f>E239*C239</f>
         <v>0</v>
       </c>
     </row>
@@ -7957,16 +8675,19 @@
       <c r="D240" s="13">
         <v>66.5</v>
       </c>
+      <c r="E240" s="10">
+        <v>114</v>
+      </c>
       <c r="F240" s="4">
-        <f t="shared" si="6"/>
+        <f>D240*C240</f>
         <v>0</v>
       </c>
       <c r="G240" s="4">
-        <f t="shared" si="7"/>
+        <f>F240*0.2</f>
         <v>0</v>
       </c>
       <c r="H240" s="4">
-        <f t="shared" si="8"/>
+        <f>E240*C240</f>
         <v>0</v>
       </c>
     </row>
@@ -7983,16 +8704,19 @@
       <c r="D241" s="13">
         <v>66.5</v>
       </c>
+      <c r="E241" s="10">
+        <v>114</v>
+      </c>
       <c r="F241" s="4">
-        <f t="shared" si="6"/>
+        <f>D241*C241</f>
         <v>0</v>
       </c>
       <c r="G241" s="4">
-        <f t="shared" si="7"/>
+        <f>F241*0.2</f>
         <v>0</v>
       </c>
       <c r="H241" s="4">
-        <f t="shared" si="8"/>
+        <f>E241*C241</f>
         <v>0</v>
       </c>
     </row>
@@ -8009,16 +8733,19 @@
       <c r="D242" s="13">
         <v>66.5</v>
       </c>
+      <c r="E242" s="10">
+        <v>114</v>
+      </c>
       <c r="F242" s="4">
-        <f t="shared" si="6"/>
+        <f>D242*C242</f>
         <v>0</v>
       </c>
       <c r="G242" s="4">
-        <f t="shared" si="7"/>
+        <f>F242*0.2</f>
         <v>0</v>
       </c>
       <c r="H242" s="4">
-        <f t="shared" si="8"/>
+        <f>E242*C242</f>
         <v>0</v>
       </c>
     </row>
@@ -8035,16 +8762,19 @@
       <c r="D243" s="13">
         <v>61.6</v>
       </c>
+      <c r="E243" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F243" s="4">
-        <f t="shared" si="6"/>
+        <f>D243*C243</f>
         <v>0</v>
       </c>
       <c r="G243" s="4">
-        <f t="shared" si="7"/>
+        <f>F243*0.2</f>
         <v>0</v>
       </c>
       <c r="H243" s="4">
-        <f t="shared" si="8"/>
+        <f>E243*C243</f>
         <v>0</v>
       </c>
     </row>
@@ -8061,16 +8791,19 @@
       <c r="D244" s="13">
         <v>61.6</v>
       </c>
+      <c r="E244" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F244" s="4">
-        <f t="shared" si="6"/>
+        <f>D244*C244</f>
         <v>0</v>
       </c>
       <c r="G244" s="4">
-        <f t="shared" si="7"/>
+        <f>F244*0.2</f>
         <v>0</v>
       </c>
       <c r="H244" s="4">
-        <f t="shared" si="8"/>
+        <f>E244*C244</f>
         <v>0</v>
       </c>
     </row>
@@ -8087,16 +8820,19 @@
       <c r="D245" s="13">
         <v>61.6</v>
       </c>
+      <c r="E245" s="10">
+        <v>105.6</v>
+      </c>
       <c r="F245" s="4">
-        <f t="shared" si="6"/>
+        <f>D245*C245</f>
         <v>0</v>
       </c>
       <c r="G245" s="4">
-        <f t="shared" si="7"/>
+        <f>F245*0.2</f>
         <v>0</v>
       </c>
       <c r="H245" s="4">
-        <f t="shared" si="8"/>
+        <f>E245*C245</f>
         <v>0</v>
       </c>
     </row>
@@ -8113,16 +8849,19 @@
       <c r="D246" s="13">
         <v>28.7</v>
       </c>
+      <c r="E246" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F246" s="4">
-        <f t="shared" si="6"/>
+        <f>D246*C246</f>
         <v>0</v>
       </c>
       <c r="G246" s="4">
-        <f t="shared" si="7"/>
+        <f>F246*0.2</f>
         <v>0</v>
       </c>
       <c r="H246" s="4">
-        <f t="shared" si="8"/>
+        <f>E246*C246</f>
         <v>0</v>
       </c>
     </row>
@@ -8139,16 +8878,19 @@
       <c r="D247" s="13">
         <v>28.7</v>
       </c>
+      <c r="E247" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F247" s="4">
-        <f t="shared" si="6"/>
+        <f>D247*C247</f>
         <v>0</v>
       </c>
       <c r="G247" s="4">
-        <f t="shared" si="7"/>
+        <f>F247*0.2</f>
         <v>0</v>
       </c>
       <c r="H247" s="4">
-        <f t="shared" si="8"/>
+        <f>E247*C247</f>
         <v>0</v>
       </c>
     </row>
@@ -8165,16 +8907,19 @@
       <c r="D248" s="13">
         <v>28.7</v>
       </c>
+      <c r="E248" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F248" s="4">
-        <f t="shared" si="6"/>
+        <f>D248*C248</f>
         <v>0</v>
       </c>
       <c r="G248" s="4">
-        <f t="shared" si="7"/>
+        <f>F248*0.2</f>
         <v>0</v>
       </c>
       <c r="H248" s="4">
-        <f t="shared" si="8"/>
+        <f>E248*C248</f>
         <v>0</v>
       </c>
     </row>
@@ -8191,16 +8936,19 @@
       <c r="D249" s="13">
         <v>28.7</v>
       </c>
+      <c r="E249" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F249" s="4">
-        <f t="shared" si="6"/>
+        <f>D249*C249</f>
         <v>0</v>
       </c>
       <c r="G249" s="4">
-        <f t="shared" si="7"/>
+        <f>F249*0.2</f>
         <v>0</v>
       </c>
       <c r="H249" s="4">
-        <f t="shared" si="8"/>
+        <f>E249*C249</f>
         <v>0</v>
       </c>
     </row>
@@ -8217,16 +8965,19 @@
       <c r="D250" s="13">
         <v>23.8</v>
       </c>
+      <c r="E250" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F250" s="4">
-        <f t="shared" si="6"/>
+        <f>D250*C250</f>
         <v>0</v>
       </c>
       <c r="G250" s="4">
-        <f t="shared" si="7"/>
+        <f>F250*0.2</f>
         <v>0</v>
       </c>
       <c r="H250" s="4">
-        <f t="shared" si="8"/>
+        <f>E250*C250</f>
         <v>0</v>
       </c>
     </row>
@@ -8243,16 +8994,19 @@
       <c r="D251" s="13">
         <v>23.8</v>
       </c>
+      <c r="E251" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F251" s="4">
-        <f t="shared" si="6"/>
+        <f>D251*C251</f>
         <v>0</v>
       </c>
       <c r="G251" s="4">
-        <f t="shared" si="7"/>
+        <f>F251*0.2</f>
         <v>0</v>
       </c>
       <c r="H251" s="4">
-        <f t="shared" si="8"/>
+        <f>E251*C251</f>
         <v>0</v>
       </c>
     </row>
@@ -8269,16 +9023,19 @@
       <c r="D252" s="13">
         <v>23.8</v>
       </c>
+      <c r="E252" s="10">
+        <v>43.2</v>
+      </c>
       <c r="F252" s="4">
-        <f t="shared" si="6"/>
+        <f>D252*C252</f>
         <v>0</v>
       </c>
       <c r="G252" s="4">
-        <f t="shared" si="7"/>
+        <f>F252*0.2</f>
         <v>0</v>
       </c>
       <c r="H252" s="4">
-        <f t="shared" si="8"/>
+        <f>E252*C252</f>
         <v>0</v>
       </c>
     </row>
@@ -8295,16 +9052,19 @@
       <c r="D253" s="13">
         <v>65.8</v>
       </c>
+      <c r="E253" s="10">
+        <v>112.8</v>
+      </c>
       <c r="F253" s="4">
-        <f t="shared" si="6"/>
+        <f>D253*C253</f>
         <v>0</v>
       </c>
       <c r="G253" s="4">
-        <f t="shared" si="7"/>
+        <f>F253*0.2</f>
         <v>0</v>
       </c>
       <c r="H253" s="4">
-        <f t="shared" si="8"/>
+        <f>E253*C253</f>
         <v>0</v>
       </c>
     </row>
@@ -8321,16 +9081,19 @@
       <c r="D254" s="13">
         <v>65.8</v>
       </c>
+      <c r="E254" s="10">
+        <v>112.8</v>
+      </c>
       <c r="F254" s="4">
-        <f t="shared" si="6"/>
+        <f>D254*C254</f>
         <v>0</v>
       </c>
       <c r="G254" s="4">
-        <f t="shared" si="7"/>
+        <f>F254*0.2</f>
         <v>0</v>
       </c>
       <c r="H254" s="4">
-        <f t="shared" si="8"/>
+        <f>E254*C254</f>
         <v>0</v>
       </c>
     </row>
@@ -8347,16 +9110,19 @@
       <c r="D255" s="13">
         <v>56</v>
       </c>
+      <c r="E255" s="10">
+        <v>96</v>
+      </c>
       <c r="F255" s="4">
-        <f t="shared" si="6"/>
+        <f>D255*C255</f>
         <v>0</v>
       </c>
       <c r="G255" s="4">
-        <f t="shared" si="7"/>
+        <f>F255*0.2</f>
         <v>0</v>
       </c>
       <c r="H255" s="4">
-        <f t="shared" si="8"/>
+        <f>E255*C255</f>
         <v>0</v>
       </c>
     </row>
@@ -8373,16 +9139,19 @@
       <c r="D256" s="13">
         <v>65.8</v>
       </c>
+      <c r="E256" s="10">
+        <v>112.8</v>
+      </c>
       <c r="F256" s="4">
-        <f t="shared" si="6"/>
+        <f>D256*C256</f>
         <v>0</v>
       </c>
       <c r="G256" s="4">
-        <f t="shared" si="7"/>
+        <f>F256*0.2</f>
         <v>0</v>
       </c>
       <c r="H256" s="4">
-        <f t="shared" si="8"/>
+        <f>E256*C256</f>
         <v>0</v>
       </c>
     </row>
@@ -8399,16 +9168,19 @@
       <c r="D257" s="13">
         <v>30.1</v>
       </c>
+      <c r="E257" s="10">
+        <v>51.6</v>
+      </c>
       <c r="F257" s="4">
-        <f t="shared" si="6"/>
+        <f>D257*C257</f>
         <v>0</v>
       </c>
       <c r="G257" s="4">
-        <f t="shared" si="7"/>
+        <f>F257*0.2</f>
         <v>0</v>
       </c>
       <c r="H257" s="4">
-        <f t="shared" si="8"/>
+        <f>E257*C257</f>
         <v>0</v>
       </c>
     </row>
@@ -8425,16 +9197,19 @@
       <c r="D258" s="13">
         <v>28</v>
       </c>
+      <c r="E258" s="10">
+        <v>48</v>
+      </c>
       <c r="F258" s="4">
-        <f t="shared" si="6"/>
+        <f>D258*C258</f>
         <v>0</v>
       </c>
       <c r="G258" s="4">
-        <f t="shared" si="7"/>
+        <f>F258*0.2</f>
         <v>0</v>
       </c>
       <c r="H258" s="4">
-        <f t="shared" si="8"/>
+        <f>E258*C258</f>
         <v>0</v>
       </c>
     </row>
@@ -8451,16 +9226,19 @@
       <c r="D259" s="13">
         <v>138.6</v>
       </c>
+      <c r="E259" s="10">
+        <v>237.6</v>
+      </c>
       <c r="F259" s="4">
-        <f t="shared" si="6"/>
+        <f>D259*C259</f>
         <v>0</v>
       </c>
       <c r="G259" s="4">
-        <f t="shared" si="7"/>
+        <f>F259*0.2</f>
         <v>0</v>
       </c>
       <c r="H259" s="4">
-        <f t="shared" si="8"/>
+        <f>E259*C259</f>
         <v>0</v>
       </c>
     </row>
@@ -8477,16 +9255,19 @@
       <c r="D260" s="13">
         <v>124.6</v>
       </c>
+      <c r="E260" s="10">
+        <v>124.6</v>
+      </c>
       <c r="F260" s="4">
-        <f t="shared" ref="F260:F293" si="9">D260*C260</f>
+        <f>D260*C260</f>
         <v>0</v>
       </c>
       <c r="G260" s="4">
-        <f t="shared" ref="G260:G293" si="10">F260*0.2</f>
+        <f>F260*0.2</f>
         <v>0</v>
       </c>
       <c r="H260" s="4">
-        <f t="shared" ref="H260:H293" si="11">E260*C260</f>
+        <f>E260*C260</f>
         <v>0</v>
       </c>
     </row>
@@ -8503,16 +9284,19 @@
       <c r="D261" s="13">
         <v>226.1</v>
       </c>
+      <c r="E261" s="10">
+        <v>387.6</v>
+      </c>
       <c r="F261" s="4">
-        <f t="shared" si="9"/>
+        <f>D261*C261</f>
         <v>0</v>
       </c>
       <c r="G261" s="4">
-        <f t="shared" si="10"/>
+        <f>F261*0.2</f>
         <v>0</v>
       </c>
       <c r="H261" s="4">
-        <f t="shared" si="11"/>
+        <f>E261*C261</f>
         <v>0</v>
       </c>
     </row>
@@ -8529,16 +9313,19 @@
       <c r="D262" s="13">
         <v>138.6</v>
       </c>
+      <c r="E262" s="10">
+        <v>237.6</v>
+      </c>
       <c r="F262" s="4">
-        <f t="shared" si="9"/>
+        <f>D262*C262</f>
         <v>0</v>
       </c>
       <c r="G262" s="4">
-        <f t="shared" si="10"/>
+        <f>F262*0.2</f>
         <v>0</v>
       </c>
       <c r="H262" s="4">
-        <f t="shared" si="11"/>
+        <f>E262*C262</f>
         <v>0</v>
       </c>
     </row>
@@ -8555,16 +9342,19 @@
       <c r="D263" s="13">
         <v>339.5</v>
       </c>
+      <c r="E263" s="10">
+        <v>582</v>
+      </c>
       <c r="F263" s="4">
-        <f t="shared" si="9"/>
+        <f>D263*C263</f>
         <v>0</v>
       </c>
       <c r="G263" s="4">
-        <f t="shared" si="10"/>
+        <f>F263*0.2</f>
         <v>0</v>
       </c>
       <c r="H263" s="4">
-        <f t="shared" si="11"/>
+        <f>E263*C263</f>
         <v>0</v>
       </c>
     </row>
@@ -8581,16 +9371,19 @@
       <c r="D264" s="13">
         <v>43.4</v>
       </c>
+      <c r="E264" s="10">
+        <v>74.400000000000006</v>
+      </c>
       <c r="F264" s="4">
-        <f t="shared" si="9"/>
+        <f>D264*C264</f>
         <v>0</v>
       </c>
       <c r="G264" s="4">
-        <f t="shared" si="10"/>
+        <f>F264*0.2</f>
         <v>0</v>
       </c>
       <c r="H264" s="4">
-        <f t="shared" si="11"/>
+        <f>E264*C264</f>
         <v>0</v>
       </c>
     </row>
@@ -8607,16 +9400,19 @@
       <c r="D265" s="13">
         <v>43.4</v>
       </c>
+      <c r="E265" s="10">
+        <v>74.400000000000006</v>
+      </c>
       <c r="F265" s="4">
-        <f t="shared" si="9"/>
+        <f>D265*C265</f>
         <v>0</v>
       </c>
       <c r="G265" s="4">
-        <f t="shared" si="10"/>
+        <f>F265*0.2</f>
         <v>0</v>
       </c>
       <c r="H265" s="4">
-        <f t="shared" si="11"/>
+        <f>E265*C265</f>
         <v>0</v>
       </c>
     </row>
@@ -8633,16 +9429,19 @@
       <c r="D266" s="13">
         <v>35.700000000000003</v>
       </c>
+      <c r="E266" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F266" s="4">
-        <f t="shared" si="9"/>
+        <f>D266*C266</f>
         <v>0</v>
       </c>
       <c r="G266" s="4">
-        <f t="shared" si="10"/>
+        <f>F266*0.2</f>
         <v>0</v>
       </c>
       <c r="H266" s="4">
-        <f t="shared" si="11"/>
+        <f>E266*C266</f>
         <v>0</v>
       </c>
     </row>
@@ -8659,16 +9458,19 @@
       <c r="D267" s="13">
         <v>37.1</v>
       </c>
+      <c r="E267" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F267" s="4">
-        <f t="shared" si="9"/>
+        <f>D267*C267</f>
         <v>0</v>
       </c>
       <c r="G267" s="4">
-        <f t="shared" si="10"/>
+        <f>F267*0.2</f>
         <v>0</v>
       </c>
       <c r="H267" s="4">
-        <f t="shared" si="11"/>
+        <f>E267*C267</f>
         <v>0</v>
       </c>
     </row>
@@ -8685,16 +9487,19 @@
       <c r="D268" s="13">
         <v>37.1</v>
       </c>
+      <c r="E268" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F268" s="4">
-        <f t="shared" si="9"/>
+        <f>D268*C268</f>
         <v>0</v>
       </c>
       <c r="G268" s="4">
-        <f t="shared" si="10"/>
+        <f>F268*0.2</f>
         <v>0</v>
       </c>
       <c r="H268" s="4">
-        <f t="shared" si="11"/>
+        <f>E268*C268</f>
         <v>0</v>
       </c>
     </row>
@@ -8711,16 +9516,19 @@
       <c r="D269" s="13">
         <v>21</v>
       </c>
+      <c r="E269" s="10">
+        <v>36</v>
+      </c>
       <c r="F269" s="4">
-        <f t="shared" si="9"/>
+        <f>D269*C269</f>
         <v>0</v>
       </c>
       <c r="G269" s="4">
-        <f t="shared" si="10"/>
+        <f>F269*0.2</f>
         <v>0</v>
       </c>
       <c r="H269" s="4">
-        <f t="shared" si="11"/>
+        <f>E269*C269</f>
         <v>0</v>
       </c>
     </row>
@@ -8737,16 +9545,19 @@
       <c r="D270" s="13">
         <v>21</v>
       </c>
+      <c r="E270" s="10">
+        <v>36</v>
+      </c>
       <c r="F270" s="4">
-        <f t="shared" si="9"/>
+        <f>D270*C270</f>
         <v>0</v>
       </c>
       <c r="G270" s="4">
-        <f t="shared" si="10"/>
+        <f>F270*0.2</f>
         <v>0</v>
       </c>
       <c r="H270" s="4">
-        <f t="shared" si="11"/>
+        <f>E270*C270</f>
         <v>0</v>
       </c>
     </row>
@@ -8763,16 +9574,19 @@
       <c r="D271" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E271" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F271" s="4">
-        <f t="shared" si="9"/>
+        <f>D271*C271</f>
         <v>0</v>
       </c>
       <c r="G271" s="4">
-        <f t="shared" si="10"/>
+        <f>F271*0.2</f>
         <v>0</v>
       </c>
       <c r="H271" s="4">
-        <f t="shared" si="11"/>
+        <f>E271*C271</f>
         <v>0</v>
       </c>
     </row>
@@ -8789,16 +9603,19 @@
       <c r="D272" s="13">
         <v>6.3</v>
       </c>
+      <c r="E272" s="10">
+        <v>10.8</v>
+      </c>
       <c r="F272" s="4">
-        <f t="shared" si="9"/>
+        <f>D272*C272</f>
         <v>0</v>
       </c>
       <c r="G272" s="4">
-        <f t="shared" si="10"/>
+        <f>F272*0.2</f>
         <v>0</v>
       </c>
       <c r="H272" s="4">
-        <f t="shared" si="11"/>
+        <f>E272*C272</f>
         <v>0</v>
       </c>
     </row>
@@ -8815,16 +9632,19 @@
       <c r="D273" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E273" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F273" s="4">
-        <f t="shared" si="9"/>
+        <f>D273*C273</f>
         <v>0</v>
       </c>
       <c r="G273" s="4">
-        <f t="shared" si="10"/>
+        <f>F273*0.2</f>
         <v>0</v>
       </c>
       <c r="H273" s="4">
-        <f t="shared" si="11"/>
+        <f>E273*C273</f>
         <v>0</v>
       </c>
     </row>
@@ -8841,16 +9661,19 @@
       <c r="D274" s="13">
         <v>43.4</v>
       </c>
+      <c r="E274" s="10">
+        <v>74.400000000000006</v>
+      </c>
       <c r="F274" s="4">
-        <f t="shared" si="9"/>
+        <f>D274*C274</f>
         <v>0</v>
       </c>
       <c r="G274" s="4">
-        <f t="shared" si="10"/>
+        <f>F274*0.2</f>
         <v>0</v>
       </c>
       <c r="H274" s="4">
-        <f t="shared" si="11"/>
+        <f>E274*C274</f>
         <v>0</v>
       </c>
     </row>
@@ -8867,16 +9690,19 @@
       <c r="D275" s="13">
         <v>43.4</v>
       </c>
+      <c r="E275" s="10">
+        <v>74.400000000000006</v>
+      </c>
       <c r="F275" s="4">
-        <f t="shared" si="9"/>
+        <f>D275*C275</f>
         <v>0</v>
       </c>
       <c r="G275" s="4">
-        <f t="shared" si="10"/>
+        <f>F275*0.2</f>
         <v>0</v>
       </c>
       <c r="H275" s="4">
-        <f t="shared" si="11"/>
+        <f>E275*C275</f>
         <v>0</v>
       </c>
     </row>
@@ -8893,16 +9719,19 @@
       <c r="D276" s="13">
         <v>35.700000000000003</v>
       </c>
+      <c r="E276" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F276" s="4">
-        <f t="shared" si="9"/>
+        <f>D276*C276</f>
         <v>0</v>
       </c>
       <c r="G276" s="4">
-        <f t="shared" si="10"/>
+        <f>F276*0.2</f>
         <v>0</v>
       </c>
       <c r="H276" s="4">
-        <f t="shared" si="11"/>
+        <f>E276*C276</f>
         <v>0</v>
       </c>
     </row>
@@ -8919,42 +9748,48 @@
       <c r="D277" s="13">
         <v>37.1</v>
       </c>
+      <c r="E277" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F277" s="4">
-        <f t="shared" si="9"/>
+        <f>D277*C277</f>
         <v>0</v>
       </c>
       <c r="G277" s="4">
-        <f t="shared" si="10"/>
+        <f>F277*0.2</f>
         <v>0</v>
       </c>
       <c r="H277" s="4">
-        <f t="shared" si="11"/>
+        <f>E277*C277</f>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="11" t="s">
+      <c r="A278" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B278" s="11" t="s">
+      <c r="B278" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C278" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="D278" s="13">
+      <c r="C278" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="D278" s="16">
         <v>37.1</v>
       </c>
+      <c r="E278" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F278" s="4">
-        <f t="shared" si="9"/>
+        <f>D278*C278</f>
         <v>0</v>
       </c>
       <c r="G278" s="4">
-        <f t="shared" si="10"/>
+        <f>F278*0.2</f>
         <v>0</v>
       </c>
       <c r="H278" s="4">
-        <f t="shared" si="11"/>
+        <f>E278*C278</f>
         <v>0</v>
       </c>
     </row>
@@ -8971,16 +9806,19 @@
       <c r="D279" s="13">
         <v>21</v>
       </c>
+      <c r="E279" s="10">
+        <v>36</v>
+      </c>
       <c r="F279" s="4">
-        <f t="shared" si="9"/>
+        <f>D279*C279</f>
         <v>0</v>
       </c>
       <c r="G279" s="4">
-        <f t="shared" si="10"/>
+        <f>F279*0.2</f>
         <v>0</v>
       </c>
       <c r="H279" s="4">
-        <f t="shared" si="11"/>
+        <f>E279*C279</f>
         <v>0</v>
       </c>
     </row>
@@ -8997,16 +9835,19 @@
       <c r="D280" s="13">
         <v>21</v>
       </c>
+      <c r="E280" s="10">
+        <v>36</v>
+      </c>
       <c r="F280" s="4">
-        <f t="shared" si="9"/>
+        <f>D280*C280</f>
         <v>0</v>
       </c>
       <c r="G280" s="4">
-        <f t="shared" si="10"/>
+        <f>F280*0.2</f>
         <v>0</v>
       </c>
       <c r="H280" s="4">
-        <f t="shared" si="11"/>
+        <f>E280*C280</f>
         <v>0</v>
       </c>
     </row>
@@ -9023,16 +9864,19 @@
       <c r="D281" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E281" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F281" s="4">
-        <f t="shared" si="9"/>
+        <f>D281*C281</f>
         <v>0</v>
       </c>
       <c r="G281" s="4">
-        <f t="shared" si="10"/>
+        <f>F281*0.2</f>
         <v>0</v>
       </c>
       <c r="H281" s="4">
-        <f t="shared" si="11"/>
+        <f>E281*C281</f>
         <v>0</v>
       </c>
     </row>
@@ -9049,16 +9893,19 @@
       <c r="D282" s="13">
         <v>6.3</v>
       </c>
+      <c r="E282" s="10">
+        <v>10.8</v>
+      </c>
       <c r="F282" s="4">
-        <f t="shared" si="9"/>
+        <f>D282*C282</f>
         <v>0</v>
       </c>
       <c r="G282" s="4">
-        <f t="shared" si="10"/>
+        <f>F282*0.2</f>
         <v>0</v>
       </c>
       <c r="H282" s="4">
-        <f t="shared" si="11"/>
+        <f>E282*C282</f>
         <v>0</v>
       </c>
     </row>
@@ -9075,16 +9922,19 @@
       <c r="D283" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E283" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F283" s="4">
-        <f t="shared" si="9"/>
+        <f>D283*C283</f>
         <v>0</v>
       </c>
       <c r="G283" s="4">
-        <f t="shared" si="10"/>
+        <f>F283*0.2</f>
         <v>0</v>
       </c>
       <c r="H283" s="4">
-        <f t="shared" si="11"/>
+        <f>E283*C283</f>
         <v>0</v>
       </c>
     </row>
@@ -9101,16 +9951,19 @@
       <c r="D284" s="13">
         <v>43.4</v>
       </c>
+      <c r="E284" s="10">
+        <v>74.400000000000006</v>
+      </c>
       <c r="F284" s="4">
-        <f t="shared" si="9"/>
+        <f>D284*C284</f>
         <v>0</v>
       </c>
       <c r="G284" s="4">
-        <f t="shared" si="10"/>
+        <f>F284*0.2</f>
         <v>0</v>
       </c>
       <c r="H284" s="4">
-        <f t="shared" si="11"/>
+        <f>E284*C284</f>
         <v>0</v>
       </c>
     </row>
@@ -9127,16 +9980,19 @@
       <c r="D285" s="13">
         <v>43.4</v>
       </c>
+      <c r="E285" s="10">
+        <v>74.400000000000006</v>
+      </c>
       <c r="F285" s="4">
-        <f t="shared" si="9"/>
+        <f>D285*C285</f>
         <v>0</v>
       </c>
       <c r="G285" s="4">
-        <f t="shared" si="10"/>
+        <f>F285*0.2</f>
         <v>0</v>
       </c>
       <c r="H285" s="4">
-        <f t="shared" si="11"/>
+        <f>E285*C285</f>
         <v>0</v>
       </c>
     </row>
@@ -9153,16 +10009,19 @@
       <c r="D286" s="13">
         <v>35.700000000000003</v>
       </c>
+      <c r="E286" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F286" s="4">
-        <f t="shared" si="9"/>
+        <f>D286*C286</f>
         <v>0</v>
       </c>
       <c r="G286" s="4">
-        <f t="shared" si="10"/>
+        <f>F286*0.2</f>
         <v>0</v>
       </c>
       <c r="H286" s="4">
-        <f t="shared" si="11"/>
+        <f>E286*C286</f>
         <v>0</v>
       </c>
     </row>
@@ -9179,16 +10038,19 @@
       <c r="D287" s="13">
         <v>37.1</v>
       </c>
+      <c r="E287" s="10">
+        <v>63.6</v>
+      </c>
       <c r="F287" s="4">
-        <f t="shared" si="9"/>
+        <f>D287*C287</f>
         <v>0</v>
       </c>
       <c r="G287" s="4">
-        <f t="shared" si="10"/>
+        <f>F287*0.2</f>
         <v>0</v>
       </c>
       <c r="H287" s="4">
-        <f t="shared" si="11"/>
+        <f>E287*C287</f>
         <v>0</v>
       </c>
     </row>
@@ -9205,16 +10067,19 @@
       <c r="D288" s="13">
         <v>37.1</v>
       </c>
-      <c r="F288" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G288" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H288" s="4">
-        <f t="shared" si="11"/>
+      <c r="E288" s="10">
+        <v>63.6</v>
+      </c>
+      <c r="F288" s="17">
+        <f>D288*C288</f>
+        <v>0</v>
+      </c>
+      <c r="G288" s="17">
+        <f>F288*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="H288" s="17">
+        <f>E288*C288</f>
         <v>0</v>
       </c>
     </row>
@@ -9231,16 +10096,19 @@
       <c r="D289" s="13">
         <v>21</v>
       </c>
+      <c r="E289" s="10">
+        <v>36</v>
+      </c>
       <c r="F289" s="4">
-        <f t="shared" si="9"/>
+        <f>D289*C289</f>
         <v>0</v>
       </c>
       <c r="G289" s="4">
-        <f t="shared" si="10"/>
+        <f>F289*0.2</f>
         <v>0</v>
       </c>
       <c r="H289" s="4">
-        <f t="shared" si="11"/>
+        <f>E289*C289</f>
         <v>0</v>
       </c>
     </row>
@@ -9257,16 +10125,19 @@
       <c r="D290" s="13">
         <v>21</v>
       </c>
+      <c r="E290" s="10">
+        <v>36</v>
+      </c>
       <c r="F290" s="4">
-        <f t="shared" si="9"/>
+        <f>D290*C290</f>
         <v>0</v>
       </c>
       <c r="G290" s="4">
-        <f t="shared" si="10"/>
+        <f>F290*0.2</f>
         <v>0</v>
       </c>
       <c r="H290" s="4">
-        <f t="shared" si="11"/>
+        <f>E290*C290</f>
         <v>0</v>
       </c>
     </row>
@@ -9283,16 +10154,19 @@
       <c r="D291" s="13">
         <v>16.100000000000001</v>
       </c>
+      <c r="E291" s="10">
+        <v>27.6</v>
+      </c>
       <c r="F291" s="4">
-        <f t="shared" si="9"/>
+        <f>D291*C291</f>
         <v>0</v>
       </c>
       <c r="G291" s="4">
-        <f t="shared" si="10"/>
+        <f>F291*0.2</f>
         <v>0</v>
       </c>
       <c r="H291" s="4">
-        <f t="shared" si="11"/>
+        <f>E291*C291</f>
         <v>0</v>
       </c>
     </row>
@@ -9309,16 +10183,19 @@
       <c r="D292" s="13">
         <v>6.3</v>
       </c>
+      <c r="E292" s="10">
+        <v>10.8</v>
+      </c>
       <c r="F292" s="4">
-        <f t="shared" si="9"/>
+        <f>D292*C292</f>
         <v>0</v>
       </c>
       <c r="G292" s="4">
-        <f t="shared" si="10"/>
+        <f>F292*0.2</f>
         <v>0</v>
       </c>
       <c r="H292" s="4">
-        <f t="shared" si="11"/>
+        <f>E292*C292</f>
         <v>0</v>
       </c>
     </row>
@@ -9335,38 +10212,47 @@
       <c r="D293" s="14">
         <v>16.100000000000001</v>
       </c>
-      <c r="F293" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G293" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H293" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E294" s="7" t="s">
+      <c r="E293" s="18">
+        <v>27.6</v>
+      </c>
+      <c r="F293" s="19">
+        <f>D293*C293</f>
+        <v>0</v>
+      </c>
+      <c r="G293" s="19">
+        <f>F293*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="H293" s="19">
+        <f>E293*C293</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="297" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E297" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F294" s="8">
+      <c r="F297" s="8">
         <f>SUM(F4:F67)</f>
         <v>0</v>
       </c>
-      <c r="G294" s="9">
+      <c r="G297" s="9">
         <f>SUM(G4:G67)</f>
         <v>0</v>
       </c>
-      <c r="H294" s="9">
+      <c r="H297" s="9">
         <f>SUM(H4:H67)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H68">
+  <autoFilter ref="A1:H294" xr:uid="{ADC8EB6A-A268-4886-832E-5928722ABA1D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H294">
+      <sortCondition ref="A1:A294"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H294">
     <sortCondition ref="A16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
